--- a/excel/sablonlar/ayo_maliyet_listesi.xlsx
+++ b/excel/sablonlar/ayo_maliyet_listesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464A785-0249-450C-9169-2728B730FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1D7CB-24A4-47CA-B8FE-97E233EFBC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Po</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Faturalama</t>
+  </si>
+  <si>
+    <t>Profit (%)</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +387,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +685,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC487"/>
+  <dimension ref="A1:AD487"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
@@ -700,12 +712,12 @@
     <col min="25" max="25" width="8.109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.109375" style="1" customWidth="1"/>
     <col min="27" max="27" width="9.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="14" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="14" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
@@ -790,11 +802,14 @@
       <c r="AB1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -823,9 +838,10 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
-    </row>
-    <row r="3" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="16"/>
+    </row>
+    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -854,9 +870,10 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="15"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -885,9 +902,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="15"/>
-      <c r="AC4" s="16"/>
-    </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -916,9 +934,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="15"/>
-      <c r="AC5" s="16"/>
-    </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="16"/>
+    </row>
+    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -947,9 +966,10 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="16"/>
-    </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="16"/>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -978,9 +998,10 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="16"/>
-    </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1009,9 +1030,10 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
-    </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="16"/>
+    </row>
+    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1040,9 +1062,10 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="16"/>
-    </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1071,9 +1094,10 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="16"/>
-    </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="16"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1102,9 +1126,10 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="15"/>
-      <c r="AC11" s="16"/>
-    </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="16"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1133,9 +1158,10 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="16"/>
-    </row>
-    <row r="13" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="16"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1164,9 +1190,10 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="15"/>
-      <c r="AC13" s="16"/>
-    </row>
-    <row r="14" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="16"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1195,9 +1222,10 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="16"/>
-    </row>
-    <row r="15" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="16"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1226,9 +1254,10 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="15"/>
-      <c r="AC15" s="16"/>
-    </row>
-    <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="16"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1257,9 +1286,10 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="16"/>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="16"/>
+    </row>
+    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1288,9 +1318,10 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="15"/>
-      <c r="AC17" s="16"/>
-    </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="16"/>
+    </row>
+    <row r="18" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1319,9 +1350,10 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="15"/>
-      <c r="AC18" s="16"/>
-    </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="16"/>
+    </row>
+    <row r="19" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1350,9 +1382,10 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="16"/>
-    </row>
-    <row r="20" spans="1:29" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="16"/>
+    </row>
+    <row r="20" spans="1:30" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1381,9 +1414,10 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="16"/>
-    </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="16"/>
+    </row>
+    <row r="21" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1412,9 +1446,10 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="16"/>
-    </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="16"/>
+    </row>
+    <row r="22" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -1443,9 +1478,10 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="16"/>
-    </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="16"/>
+    </row>
+    <row r="23" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1474,9 +1510,10 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="16"/>
-    </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="16"/>
+    </row>
+    <row r="24" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1505,9 +1542,10 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="16"/>
-    </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="16"/>
+    </row>
+    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -1536,9 +1574,10 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="16"/>
-    </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="16"/>
+    </row>
+    <row r="26" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -1567,9 +1606,10 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="15"/>
-      <c r="AC26" s="16"/>
-    </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="16"/>
+    </row>
+    <row r="27" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1598,9 +1638,10 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="15"/>
-      <c r="AC27" s="16"/>
-    </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="16"/>
+    </row>
+    <row r="28" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1629,9 +1670,10 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="15"/>
-      <c r="AC28" s="16"/>
-    </row>
-    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="16"/>
+    </row>
+    <row r="29" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1660,9 +1702,10 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="15"/>
-      <c r="AC29" s="16"/>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="16"/>
+    </row>
+    <row r="30" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1691,9 +1734,10 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="15"/>
-      <c r="AC30" s="16"/>
-    </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="16"/>
+    </row>
+    <row r="31" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -1722,9 +1766,10 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="15"/>
-      <c r="AC31" s="16"/>
-    </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="16"/>
+    </row>
+    <row r="32" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -1753,9 +1798,10 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="15"/>
-      <c r="AC32" s="16"/>
-    </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="16"/>
+    </row>
+    <row r="33" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -1784,9 +1830,10 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="15"/>
-      <c r="AC33" s="16"/>
-    </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="16"/>
+    </row>
+    <row r="34" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -1815,9 +1862,10 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="15"/>
-      <c r="AC34" s="16"/>
-    </row>
-    <row r="35" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="16"/>
+    </row>
+    <row r="35" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -1846,9 +1894,10 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="15"/>
-      <c r="AC35" s="16"/>
-    </row>
-    <row r="36" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="16"/>
+    </row>
+    <row r="36" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -1877,9 +1926,10 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="15"/>
-      <c r="AC36" s="16"/>
-    </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="16"/>
+    </row>
+    <row r="37" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -1908,9 +1958,10 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="15"/>
-      <c r="AC37" s="16"/>
-    </row>
-    <row r="38" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="16"/>
+    </row>
+    <row r="38" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -1939,9 +1990,10 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="15"/>
-      <c r="AC38" s="16"/>
-    </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="16"/>
+    </row>
+    <row r="39" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -1970,9 +2022,10 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="15"/>
-      <c r="AC39" s="16"/>
-    </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="16"/>
+    </row>
+    <row r="40" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2001,9 +2054,10 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="15"/>
-      <c r="AC40" s="16"/>
-    </row>
-    <row r="41" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="16"/>
+    </row>
+    <row r="41" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2032,9 +2086,10 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="15"/>
-      <c r="AC41" s="16"/>
-    </row>
-    <row r="42" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="16"/>
+    </row>
+    <row r="42" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2063,9 +2118,10 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="15"/>
-      <c r="AC42" s="16"/>
-    </row>
-    <row r="43" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="16"/>
+    </row>
+    <row r="43" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2094,9 +2150,10 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="15"/>
-      <c r="AC43" s="16"/>
-    </row>
-    <row r="44" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="16"/>
+    </row>
+    <row r="44" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2125,9 +2182,10 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="15"/>
-      <c r="AC44" s="16"/>
-    </row>
-    <row r="45" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="16"/>
+    </row>
+    <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2156,9 +2214,10 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="15"/>
-      <c r="AC45" s="16"/>
-    </row>
-    <row r="46" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="16"/>
+    </row>
+    <row r="46" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2187,9 +2246,10 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="15"/>
-      <c r="AC46" s="16"/>
-    </row>
-    <row r="47" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="16"/>
+    </row>
+    <row r="47" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2218,9 +2278,10 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="15"/>
-      <c r="AC47" s="16"/>
-    </row>
-    <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="16"/>
+    </row>
+    <row r="48" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2249,9 +2310,10 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="15"/>
-      <c r="AC48" s="16"/>
-    </row>
-    <row r="49" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="16"/>
+    </row>
+    <row r="49" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2280,9 +2342,10 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="15"/>
-      <c r="AC49" s="16"/>
-    </row>
-    <row r="50" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="16"/>
+    </row>
+    <row r="50" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2311,9 +2374,10 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="15"/>
-      <c r="AC50" s="16"/>
-    </row>
-    <row r="51" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="16"/>
+    </row>
+    <row r="51" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2342,9 +2406,10 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="15"/>
-      <c r="AC51" s="16"/>
-    </row>
-    <row r="52" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="16"/>
+    </row>
+    <row r="52" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2373,9 +2438,10 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="16"/>
-    </row>
-    <row r="53" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="16"/>
+    </row>
+    <row r="53" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2404,9 +2470,10 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="15"/>
-      <c r="AC53" s="16"/>
-    </row>
-    <row r="54" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="16"/>
+    </row>
+    <row r="54" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2435,9 +2502,10 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="15"/>
-      <c r="AC54" s="16"/>
-    </row>
-    <row r="55" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="16"/>
+    </row>
+    <row r="55" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2466,9 +2534,10 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="15"/>
-      <c r="AC55" s="16"/>
-    </row>
-    <row r="56" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="16"/>
+    </row>
+    <row r="56" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -2497,9 +2566,10 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="15"/>
-      <c r="AC56" s="16"/>
-    </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="16"/>
+    </row>
+    <row r="57" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2528,9 +2598,10 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="15"/>
-      <c r="AC57" s="16"/>
-    </row>
-    <row r="58" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="16"/>
+    </row>
+    <row r="58" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2559,9 +2630,10 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="15"/>
-      <c r="AC58" s="16"/>
-    </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="16"/>
+    </row>
+    <row r="59" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2590,9 +2662,10 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="15"/>
-      <c r="AC59" s="16"/>
-    </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="16"/>
+    </row>
+    <row r="60" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2621,9 +2694,10 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="15"/>
-      <c r="AC60" s="16"/>
-    </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="16"/>
+    </row>
+    <row r="61" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2652,9 +2726,10 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="15"/>
-      <c r="AC61" s="16"/>
-    </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC61" s="31"/>
+      <c r="AD61" s="16"/>
+    </row>
+    <row r="62" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2683,9 +2758,10 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="15"/>
-      <c r="AC62" s="16"/>
-    </row>
-    <row r="63" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC62" s="31"/>
+      <c r="AD62" s="16"/>
+    </row>
+    <row r="63" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2714,9 +2790,10 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="15"/>
-      <c r="AC63" s="16"/>
-    </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="16"/>
+    </row>
+    <row r="64" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2745,9 +2822,10 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="15"/>
-      <c r="AC64" s="16"/>
-    </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC64" s="31"/>
+      <c r="AD64" s="16"/>
+    </row>
+    <row r="65" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2776,9 +2854,10 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="15"/>
-      <c r="AC65" s="16"/>
-    </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC65" s="31"/>
+      <c r="AD65" s="16"/>
+    </row>
+    <row r="66" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2807,9 +2886,10 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="15"/>
-      <c r="AC66" s="16"/>
-    </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="16"/>
+    </row>
+    <row r="67" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2838,9 +2918,10 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="15"/>
-      <c r="AC67" s="16"/>
-    </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC67" s="31"/>
+      <c r="AD67" s="16"/>
+    </row>
+    <row r="68" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -2869,9 +2950,10 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="15"/>
-      <c r="AC68" s="16"/>
-    </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC68" s="31"/>
+      <c r="AD68" s="16"/>
+    </row>
+    <row r="69" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -2900,9 +2982,10 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="15"/>
-      <c r="AC69" s="16"/>
-    </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC69" s="31"/>
+      <c r="AD69" s="16"/>
+    </row>
+    <row r="70" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -2931,9 +3014,10 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="15"/>
-      <c r="AC70" s="16"/>
-    </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC70" s="31"/>
+      <c r="AD70" s="16"/>
+    </row>
+    <row r="71" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2962,9 +3046,10 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="15"/>
-      <c r="AC71" s="16"/>
-    </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC71" s="31"/>
+      <c r="AD71" s="16"/>
+    </row>
+    <row r="72" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -2993,9 +3078,10 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="15"/>
-      <c r="AC72" s="16"/>
-    </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC72" s="31"/>
+      <c r="AD72" s="16"/>
+    </row>
+    <row r="73" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3024,9 +3110,10 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="15"/>
-      <c r="AC73" s="16"/>
-    </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC73" s="31"/>
+      <c r="AD73" s="16"/>
+    </row>
+    <row r="74" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3055,9 +3142,10 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="15"/>
-      <c r="AC74" s="16"/>
-    </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC74" s="31"/>
+      <c r="AD74" s="16"/>
+    </row>
+    <row r="75" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3086,9 +3174,10 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="15"/>
-      <c r="AC75" s="16"/>
-    </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC75" s="31"/>
+      <c r="AD75" s="16"/>
+    </row>
+    <row r="76" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3117,9 +3206,10 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="15"/>
-      <c r="AC76" s="16"/>
-    </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC76" s="31"/>
+      <c r="AD76" s="16"/>
+    </row>
+    <row r="77" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3148,9 +3238,10 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="15"/>
-      <c r="AC77" s="16"/>
-    </row>
-    <row r="78" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC77" s="31"/>
+      <c r="AD77" s="16"/>
+    </row>
+    <row r="78" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -3179,9 +3270,10 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="15"/>
-      <c r="AC78" s="16"/>
-    </row>
-    <row r="79" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC78" s="31"/>
+      <c r="AD78" s="16"/>
+    </row>
+    <row r="79" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -3210,9 +3302,10 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="15"/>
-      <c r="AC79" s="16"/>
-    </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC79" s="31"/>
+      <c r="AD79" s="16"/>
+    </row>
+    <row r="80" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -3241,9 +3334,10 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="15"/>
-      <c r="AC80" s="16"/>
-    </row>
-    <row r="81" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC80" s="31"/>
+      <c r="AD80" s="16"/>
+    </row>
+    <row r="81" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3272,9 +3366,10 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="15"/>
-      <c r="AC81" s="16"/>
-    </row>
-    <row r="82" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC81" s="31"/>
+      <c r="AD81" s="16"/>
+    </row>
+    <row r="82" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -3303,9 +3398,10 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="15"/>
-      <c r="AC82" s="16"/>
-    </row>
-    <row r="83" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC82" s="31"/>
+      <c r="AD82" s="16"/>
+    </row>
+    <row r="83" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3334,9 +3430,10 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="15"/>
-      <c r="AC83" s="16"/>
-    </row>
-    <row r="84" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC83" s="31"/>
+      <c r="AD83" s="16"/>
+    </row>
+    <row r="84" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3365,9 +3462,10 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="15"/>
-      <c r="AC84" s="16"/>
-    </row>
-    <row r="85" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC84" s="31"/>
+      <c r="AD84" s="16"/>
+    </row>
+    <row r="85" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3396,9 +3494,10 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="15"/>
-      <c r="AC85" s="16"/>
-    </row>
-    <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC85" s="31"/>
+      <c r="AD85" s="16"/>
+    </row>
+    <row r="86" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3427,9 +3526,10 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="15"/>
-      <c r="AC86" s="16"/>
-    </row>
-    <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC86" s="31"/>
+      <c r="AD86" s="16"/>
+    </row>
+    <row r="87" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3458,9 +3558,10 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="15"/>
-      <c r="AC87" s="16"/>
-    </row>
-    <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC87" s="31"/>
+      <c r="AD87" s="16"/>
+    </row>
+    <row r="88" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3489,9 +3590,10 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="15"/>
-      <c r="AC88" s="16"/>
-    </row>
-    <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC88" s="31"/>
+      <c r="AD88" s="16"/>
+    </row>
+    <row r="89" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3520,9 +3622,10 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="15"/>
-      <c r="AC89" s="16"/>
-    </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC89" s="31"/>
+      <c r="AD89" s="16"/>
+    </row>
+    <row r="90" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3551,9 +3654,10 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="15"/>
-      <c r="AC90" s="16"/>
-    </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC90" s="31"/>
+      <c r="AD90" s="16"/>
+    </row>
+    <row r="91" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -3582,9 +3686,10 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="15"/>
-      <c r="AC91" s="16"/>
-    </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC91" s="31"/>
+      <c r="AD91" s="16"/>
+    </row>
+    <row r="92" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -3613,9 +3718,10 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="15"/>
-      <c r="AC92" s="16"/>
-    </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC92" s="31"/>
+      <c r="AD92" s="16"/>
+    </row>
+    <row r="93" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -3644,9 +3750,10 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="15"/>
-      <c r="AC93" s="16"/>
-    </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC93" s="31"/>
+      <c r="AD93" s="16"/>
+    </row>
+    <row r="94" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -3675,9 +3782,10 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="15"/>
-      <c r="AC94" s="16"/>
-    </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC94" s="31"/>
+      <c r="AD94" s="16"/>
+    </row>
+    <row r="95" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -3706,9 +3814,10 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="15"/>
-      <c r="AC95" s="16"/>
-    </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC95" s="31"/>
+      <c r="AD95" s="16"/>
+    </row>
+    <row r="96" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -3737,9 +3846,10 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="15"/>
-      <c r="AC96" s="16"/>
-    </row>
-    <row r="97" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC96" s="31"/>
+      <c r="AD96" s="16"/>
+    </row>
+    <row r="97" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -3768,9 +3878,10 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="15"/>
-      <c r="AC97" s="16"/>
-    </row>
-    <row r="98" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC97" s="31"/>
+      <c r="AD97" s="16"/>
+    </row>
+    <row r="98" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -3799,9 +3910,10 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="15"/>
-      <c r="AC98" s="16"/>
-    </row>
-    <row r="99" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC98" s="31"/>
+      <c r="AD98" s="16"/>
+    </row>
+    <row r="99" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -3830,9 +3942,10 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="15"/>
-      <c r="AC99" s="16"/>
-    </row>
-    <row r="100" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC99" s="31"/>
+      <c r="AD99" s="16"/>
+    </row>
+    <row r="100" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -3861,9 +3974,10 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="15"/>
-      <c r="AC100" s="16"/>
-    </row>
-    <row r="101" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC100" s="31"/>
+      <c r="AD100" s="16"/>
+    </row>
+    <row r="101" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -3892,9 +4006,10 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="15"/>
-      <c r="AC101" s="16"/>
-    </row>
-    <row r="102" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC101" s="31"/>
+      <c r="AD101" s="16"/>
+    </row>
+    <row r="102" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -3923,9 +4038,10 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="6"/>
       <c r="AB102" s="15"/>
-      <c r="AC102" s="16"/>
-    </row>
-    <row r="103" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC102" s="31"/>
+      <c r="AD102" s="16"/>
+    </row>
+    <row r="103" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -3954,9 +4070,10 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="6"/>
       <c r="AB103" s="15"/>
-      <c r="AC103" s="16"/>
-    </row>
-    <row r="104" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC103" s="31"/>
+      <c r="AD103" s="16"/>
+    </row>
+    <row r="104" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -3985,9 +4102,10 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="6"/>
       <c r="AB104" s="15"/>
-      <c r="AC104" s="16"/>
-    </row>
-    <row r="105" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC104" s="31"/>
+      <c r="AD104" s="16"/>
+    </row>
+    <row r="105" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -4016,9 +4134,10 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="6"/>
       <c r="AB105" s="15"/>
-      <c r="AC105" s="16"/>
-    </row>
-    <row r="106" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC105" s="31"/>
+      <c r="AD105" s="16"/>
+    </row>
+    <row r="106" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -4047,9 +4166,10 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="6"/>
       <c r="AB106" s="15"/>
-      <c r="AC106" s="16"/>
-    </row>
-    <row r="107" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC106" s="31"/>
+      <c r="AD106" s="16"/>
+    </row>
+    <row r="107" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -4078,9 +4198,10 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="6"/>
       <c r="AB107" s="15"/>
-      <c r="AC107" s="16"/>
-    </row>
-    <row r="108" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC107" s="31"/>
+      <c r="AD107" s="16"/>
+    </row>
+    <row r="108" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -4109,9 +4230,10 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="6"/>
       <c r="AB108" s="15"/>
-      <c r="AC108" s="16"/>
-    </row>
-    <row r="109" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="16"/>
+    </row>
+    <row r="109" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -4140,9 +4262,10 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="6"/>
       <c r="AB109" s="15"/>
-      <c r="AC109" s="16"/>
-    </row>
-    <row r="110" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC109" s="31"/>
+      <c r="AD109" s="16"/>
+    </row>
+    <row r="110" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -4171,9 +4294,10 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="6"/>
       <c r="AB110" s="15"/>
-      <c r="AC110" s="16"/>
-    </row>
-    <row r="111" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC110" s="31"/>
+      <c r="AD110" s="16"/>
+    </row>
+    <row r="111" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -4202,9 +4326,10 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="6"/>
       <c r="AB111" s="15"/>
-      <c r="AC111" s="16"/>
-    </row>
-    <row r="112" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC111" s="31"/>
+      <c r="AD111" s="16"/>
+    </row>
+    <row r="112" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -4233,9 +4358,10 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="6"/>
       <c r="AB112" s="15"/>
-      <c r="AC112" s="16"/>
-    </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC112" s="31"/>
+      <c r="AD112" s="16"/>
+    </row>
+    <row r="113" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -4264,9 +4390,10 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="6"/>
       <c r="AB113" s="15"/>
-      <c r="AC113" s="16"/>
-    </row>
-    <row r="114" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC113" s="31"/>
+      <c r="AD113" s="16"/>
+    </row>
+    <row r="114" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -4295,9 +4422,10 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="6"/>
       <c r="AB114" s="15"/>
-      <c r="AC114" s="16"/>
-    </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC114" s="31"/>
+      <c r="AD114" s="16"/>
+    </row>
+    <row r="115" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -4326,9 +4454,10 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="6"/>
       <c r="AB115" s="15"/>
-      <c r="AC115" s="16"/>
-    </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC115" s="31"/>
+      <c r="AD115" s="16"/>
+    </row>
+    <row r="116" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -4357,9 +4486,10 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="6"/>
       <c r="AB116" s="15"/>
-      <c r="AC116" s="16"/>
-    </row>
-    <row r="117" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC116" s="31"/>
+      <c r="AD116" s="16"/>
+    </row>
+    <row r="117" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -4388,9 +4518,10 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="6"/>
       <c r="AB117" s="15"/>
-      <c r="AC117" s="16"/>
-    </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC117" s="31"/>
+      <c r="AD117" s="16"/>
+    </row>
+    <row r="118" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -4419,9 +4550,10 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="6"/>
       <c r="AB118" s="15"/>
-      <c r="AC118" s="16"/>
-    </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC118" s="31"/>
+      <c r="AD118" s="16"/>
+    </row>
+    <row r="119" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -4450,9 +4582,10 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="6"/>
       <c r="AB119" s="15"/>
-      <c r="AC119" s="16"/>
-    </row>
-    <row r="120" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC119" s="31"/>
+      <c r="AD119" s="16"/>
+    </row>
+    <row r="120" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -4481,9 +4614,10 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="6"/>
       <c r="AB120" s="15"/>
-      <c r="AC120" s="16"/>
-    </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC120" s="31"/>
+      <c r="AD120" s="16"/>
+    </row>
+    <row r="121" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -4512,9 +4646,10 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="6"/>
       <c r="AB121" s="15"/>
-      <c r="AC121" s="16"/>
-    </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC121" s="31"/>
+      <c r="AD121" s="16"/>
+    </row>
+    <row r="122" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -4543,9 +4678,10 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="6"/>
       <c r="AB122" s="15"/>
-      <c r="AC122" s="16"/>
-    </row>
-    <row r="123" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC122" s="31"/>
+      <c r="AD122" s="16"/>
+    </row>
+    <row r="123" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -4574,9 +4710,10 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="6"/>
       <c r="AB123" s="15"/>
-      <c r="AC123" s="16"/>
-    </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC123" s="31"/>
+      <c r="AD123" s="16"/>
+    </row>
+    <row r="124" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -4605,9 +4742,10 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="6"/>
       <c r="AB124" s="15"/>
-      <c r="AC124" s="16"/>
-    </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC124" s="31"/>
+      <c r="AD124" s="16"/>
+    </row>
+    <row r="125" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -4636,9 +4774,10 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="6"/>
       <c r="AB125" s="15"/>
-      <c r="AC125" s="16"/>
-    </row>
-    <row r="126" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC125" s="31"/>
+      <c r="AD125" s="16"/>
+    </row>
+    <row r="126" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -4667,9 +4806,10 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="6"/>
       <c r="AB126" s="15"/>
-      <c r="AC126" s="16"/>
-    </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC126" s="31"/>
+      <c r="AD126" s="16"/>
+    </row>
+    <row r="127" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -4698,9 +4838,10 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="6"/>
       <c r="AB127" s="15"/>
-      <c r="AC127" s="16"/>
-    </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC127" s="31"/>
+      <c r="AD127" s="16"/>
+    </row>
+    <row r="128" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -4729,9 +4870,10 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="6"/>
       <c r="AB128" s="15"/>
-      <c r="AC128" s="16"/>
-    </row>
-    <row r="129" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="16"/>
+    </row>
+    <row r="129" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -4760,9 +4902,10 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="6"/>
       <c r="AB129" s="15"/>
-      <c r="AC129" s="16"/>
-    </row>
-    <row r="130" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC129" s="31"/>
+      <c r="AD129" s="16"/>
+    </row>
+    <row r="130" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -4791,9 +4934,10 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="6"/>
       <c r="AB130" s="15"/>
-      <c r="AC130" s="16"/>
-    </row>
-    <row r="131" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC130" s="31"/>
+      <c r="AD130" s="16"/>
+    </row>
+    <row r="131" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -4822,9 +4966,10 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="6"/>
       <c r="AB131" s="15"/>
-      <c r="AC131" s="16"/>
-    </row>
-    <row r="132" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC131" s="31"/>
+      <c r="AD131" s="16"/>
+    </row>
+    <row r="132" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -4853,9 +4998,10 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="6"/>
       <c r="AB132" s="15"/>
-      <c r="AC132" s="16"/>
-    </row>
-    <row r="133" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC132" s="31"/>
+      <c r="AD132" s="16"/>
+    </row>
+    <row r="133" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -4884,9 +5030,10 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="6"/>
       <c r="AB133" s="15"/>
-      <c r="AC133" s="16"/>
-    </row>
-    <row r="134" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC133" s="31"/>
+      <c r="AD133" s="16"/>
+    </row>
+    <row r="134" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -4915,9 +5062,10 @@
       <c r="Z134" s="5"/>
       <c r="AA134" s="6"/>
       <c r="AB134" s="15"/>
-      <c r="AC134" s="16"/>
-    </row>
-    <row r="135" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC134" s="31"/>
+      <c r="AD134" s="16"/>
+    </row>
+    <row r="135" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -4946,9 +5094,10 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="6"/>
       <c r="AB135" s="15"/>
-      <c r="AC135" s="16"/>
-    </row>
-    <row r="136" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC135" s="31"/>
+      <c r="AD135" s="16"/>
+    </row>
+    <row r="136" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -4977,9 +5126,10 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="6"/>
       <c r="AB136" s="15"/>
-      <c r="AC136" s="16"/>
-    </row>
-    <row r="137" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC136" s="31"/>
+      <c r="AD136" s="16"/>
+    </row>
+    <row r="137" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -5008,9 +5158,10 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="6"/>
       <c r="AB137" s="15"/>
-      <c r="AC137" s="16"/>
-    </row>
-    <row r="138" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC137" s="31"/>
+      <c r="AD137" s="16"/>
+    </row>
+    <row r="138" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -5039,9 +5190,10 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="6"/>
       <c r="AB138" s="15"/>
-      <c r="AC138" s="16"/>
-    </row>
-    <row r="139" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC138" s="31"/>
+      <c r="AD138" s="16"/>
+    </row>
+    <row r="139" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -5070,9 +5222,10 @@
       <c r="Z139" s="5"/>
       <c r="AA139" s="6"/>
       <c r="AB139" s="15"/>
-      <c r="AC139" s="16"/>
-    </row>
-    <row r="140" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC139" s="31"/>
+      <c r="AD139" s="16"/>
+    </row>
+    <row r="140" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -5101,9 +5254,10 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="6"/>
       <c r="AB140" s="15"/>
-      <c r="AC140" s="16"/>
-    </row>
-    <row r="141" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC140" s="31"/>
+      <c r="AD140" s="16"/>
+    </row>
+    <row r="141" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -5132,9 +5286,10 @@
       <c r="Z141" s="5"/>
       <c r="AA141" s="6"/>
       <c r="AB141" s="15"/>
-      <c r="AC141" s="16"/>
-    </row>
-    <row r="142" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC141" s="31"/>
+      <c r="AD141" s="16"/>
+    </row>
+    <row r="142" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -5163,9 +5318,10 @@
       <c r="Z142" s="5"/>
       <c r="AA142" s="6"/>
       <c r="AB142" s="15"/>
-      <c r="AC142" s="16"/>
-    </row>
-    <row r="143" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC142" s="31"/>
+      <c r="AD142" s="16"/>
+    </row>
+    <row r="143" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -5194,9 +5350,10 @@
       <c r="Z143" s="5"/>
       <c r="AA143" s="6"/>
       <c r="AB143" s="15"/>
-      <c r="AC143" s="16"/>
-    </row>
-    <row r="144" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC143" s="31"/>
+      <c r="AD143" s="16"/>
+    </row>
+    <row r="144" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -5225,9 +5382,10 @@
       <c r="Z144" s="5"/>
       <c r="AA144" s="6"/>
       <c r="AB144" s="15"/>
-      <c r="AC144" s="16"/>
-    </row>
-    <row r="145" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC144" s="31"/>
+      <c r="AD144" s="16"/>
+    </row>
+    <row r="145" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -5256,9 +5414,10 @@
       <c r="Z145" s="5"/>
       <c r="AA145" s="6"/>
       <c r="AB145" s="15"/>
-      <c r="AC145" s="16"/>
-    </row>
-    <row r="146" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC145" s="31"/>
+      <c r="AD145" s="16"/>
+    </row>
+    <row r="146" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -5287,9 +5446,10 @@
       <c r="Z146" s="5"/>
       <c r="AA146" s="6"/>
       <c r="AB146" s="15"/>
-      <c r="AC146" s="16"/>
-    </row>
-    <row r="147" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC146" s="31"/>
+      <c r="AD146" s="16"/>
+    </row>
+    <row r="147" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -5318,9 +5478,10 @@
       <c r="Z147" s="5"/>
       <c r="AA147" s="6"/>
       <c r="AB147" s="15"/>
-      <c r="AC147" s="16"/>
-    </row>
-    <row r="148" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC147" s="31"/>
+      <c r="AD147" s="16"/>
+    </row>
+    <row r="148" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -5349,9 +5510,10 @@
       <c r="Z148" s="5"/>
       <c r="AA148" s="6"/>
       <c r="AB148" s="15"/>
-      <c r="AC148" s="16"/>
-    </row>
-    <row r="149" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC148" s="31"/>
+      <c r="AD148" s="16"/>
+    </row>
+    <row r="149" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -5380,9 +5542,10 @@
       <c r="Z149" s="5"/>
       <c r="AA149" s="6"/>
       <c r="AB149" s="15"/>
-      <c r="AC149" s="16"/>
-    </row>
-    <row r="150" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC149" s="31"/>
+      <c r="AD149" s="16"/>
+    </row>
+    <row r="150" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -5411,9 +5574,10 @@
       <c r="Z150" s="5"/>
       <c r="AA150" s="6"/>
       <c r="AB150" s="15"/>
-      <c r="AC150" s="16"/>
-    </row>
-    <row r="151" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC150" s="31"/>
+      <c r="AD150" s="16"/>
+    </row>
+    <row r="151" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -5442,9 +5606,10 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="6"/>
       <c r="AB151" s="15"/>
-      <c r="AC151" s="16"/>
-    </row>
-    <row r="152" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC151" s="31"/>
+      <c r="AD151" s="16"/>
+    </row>
+    <row r="152" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -5473,9 +5638,10 @@
       <c r="Z152" s="5"/>
       <c r="AA152" s="6"/>
       <c r="AB152" s="15"/>
-      <c r="AC152" s="16"/>
-    </row>
-    <row r="153" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC152" s="31"/>
+      <c r="AD152" s="16"/>
+    </row>
+    <row r="153" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -5504,9 +5670,10 @@
       <c r="Z153" s="5"/>
       <c r="AA153" s="6"/>
       <c r="AB153" s="15"/>
-      <c r="AC153" s="16"/>
-    </row>
-    <row r="154" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC153" s="31"/>
+      <c r="AD153" s="16"/>
+    </row>
+    <row r="154" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -5535,9 +5702,10 @@
       <c r="Z154" s="5"/>
       <c r="AA154" s="6"/>
       <c r="AB154" s="15"/>
-      <c r="AC154" s="16"/>
-    </row>
-    <row r="155" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC154" s="31"/>
+      <c r="AD154" s="16"/>
+    </row>
+    <row r="155" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -5566,9 +5734,10 @@
       <c r="Z155" s="5"/>
       <c r="AA155" s="6"/>
       <c r="AB155" s="15"/>
-      <c r="AC155" s="16"/>
-    </row>
-    <row r="156" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC155" s="31"/>
+      <c r="AD155" s="16"/>
+    </row>
+    <row r="156" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -5597,9 +5766,10 @@
       <c r="Z156" s="5"/>
       <c r="AA156" s="6"/>
       <c r="AB156" s="15"/>
-      <c r="AC156" s="16"/>
-    </row>
-    <row r="157" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC156" s="31"/>
+      <c r="AD156" s="16"/>
+    </row>
+    <row r="157" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -5628,9 +5798,10 @@
       <c r="Z157" s="5"/>
       <c r="AA157" s="6"/>
       <c r="AB157" s="15"/>
-      <c r="AC157" s="16"/>
-    </row>
-    <row r="158" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC157" s="31"/>
+      <c r="AD157" s="16"/>
+    </row>
+    <row r="158" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -5659,9 +5830,10 @@
       <c r="Z158" s="5"/>
       <c r="AA158" s="6"/>
       <c r="AB158" s="15"/>
-      <c r="AC158" s="16"/>
-    </row>
-    <row r="159" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC158" s="31"/>
+      <c r="AD158" s="16"/>
+    </row>
+    <row r="159" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -5690,9 +5862,10 @@
       <c r="Z159" s="5"/>
       <c r="AA159" s="6"/>
       <c r="AB159" s="15"/>
-      <c r="AC159" s="16"/>
-    </row>
-    <row r="160" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC159" s="31"/>
+      <c r="AD159" s="16"/>
+    </row>
+    <row r="160" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -5721,9 +5894,10 @@
       <c r="Z160" s="5"/>
       <c r="AA160" s="6"/>
       <c r="AB160" s="15"/>
-      <c r="AC160" s="16"/>
-    </row>
-    <row r="161" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC160" s="31"/>
+      <c r="AD160" s="16"/>
+    </row>
+    <row r="161" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -5752,9 +5926,10 @@
       <c r="Z161" s="5"/>
       <c r="AA161" s="6"/>
       <c r="AB161" s="15"/>
-      <c r="AC161" s="16"/>
-    </row>
-    <row r="162" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC161" s="31"/>
+      <c r="AD161" s="16"/>
+    </row>
+    <row r="162" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -5783,9 +5958,10 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="6"/>
       <c r="AB162" s="15"/>
-      <c r="AC162" s="16"/>
-    </row>
-    <row r="163" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC162" s="31"/>
+      <c r="AD162" s="16"/>
+    </row>
+    <row r="163" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -5814,9 +5990,10 @@
       <c r="Z163" s="5"/>
       <c r="AA163" s="6"/>
       <c r="AB163" s="15"/>
-      <c r="AC163" s="16"/>
-    </row>
-    <row r="164" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC163" s="31"/>
+      <c r="AD163" s="16"/>
+    </row>
+    <row r="164" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -5845,9 +6022,10 @@
       <c r="Z164" s="5"/>
       <c r="AA164" s="6"/>
       <c r="AB164" s="15"/>
-      <c r="AC164" s="16"/>
-    </row>
-    <row r="165" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC164" s="31"/>
+      <c r="AD164" s="16"/>
+    </row>
+    <row r="165" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -5876,9 +6054,10 @@
       <c r="Z165" s="5"/>
       <c r="AA165" s="6"/>
       <c r="AB165" s="15"/>
-      <c r="AC165" s="16"/>
-    </row>
-    <row r="166" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC165" s="31"/>
+      <c r="AD165" s="16"/>
+    </row>
+    <row r="166" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -5907,9 +6086,10 @@
       <c r="Z166" s="5"/>
       <c r="AA166" s="6"/>
       <c r="AB166" s="15"/>
-      <c r="AC166" s="16"/>
-    </row>
-    <row r="167" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC166" s="31"/>
+      <c r="AD166" s="16"/>
+    </row>
+    <row r="167" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -5938,9 +6118,10 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="6"/>
       <c r="AB167" s="15"/>
-      <c r="AC167" s="16"/>
-    </row>
-    <row r="168" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC167" s="31"/>
+      <c r="AD167" s="16"/>
+    </row>
+    <row r="168" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -5969,9 +6150,10 @@
       <c r="Z168" s="5"/>
       <c r="AA168" s="6"/>
       <c r="AB168" s="15"/>
-      <c r="AC168" s="16"/>
-    </row>
-    <row r="169" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC168" s="31"/>
+      <c r="AD168" s="16"/>
+    </row>
+    <row r="169" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -6000,9 +6182,10 @@
       <c r="Z169" s="5"/>
       <c r="AA169" s="6"/>
       <c r="AB169" s="15"/>
-      <c r="AC169" s="16"/>
-    </row>
-    <row r="170" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC169" s="31"/>
+      <c r="AD169" s="16"/>
+    </row>
+    <row r="170" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -6031,9 +6214,10 @@
       <c r="Z170" s="5"/>
       <c r="AA170" s="6"/>
       <c r="AB170" s="15"/>
-      <c r="AC170" s="16"/>
-    </row>
-    <row r="171" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC170" s="31"/>
+      <c r="AD170" s="16"/>
+    </row>
+    <row r="171" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -6062,9 +6246,10 @@
       <c r="Z171" s="5"/>
       <c r="AA171" s="6"/>
       <c r="AB171" s="15"/>
-      <c r="AC171" s="16"/>
-    </row>
-    <row r="172" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC171" s="31"/>
+      <c r="AD171" s="16"/>
+    </row>
+    <row r="172" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -6093,9 +6278,10 @@
       <c r="Z172" s="5"/>
       <c r="AA172" s="6"/>
       <c r="AB172" s="15"/>
-      <c r="AC172" s="16"/>
-    </row>
-    <row r="173" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC172" s="31"/>
+      <c r="AD172" s="16"/>
+    </row>
+    <row r="173" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -6124,9 +6310,10 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="6"/>
       <c r="AB173" s="15"/>
-      <c r="AC173" s="16"/>
-    </row>
-    <row r="174" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC173" s="31"/>
+      <c r="AD173" s="16"/>
+    </row>
+    <row r="174" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -6155,9 +6342,10 @@
       <c r="Z174" s="5"/>
       <c r="AA174" s="6"/>
       <c r="AB174" s="7"/>
-      <c r="AC174" s="16"/>
-    </row>
-    <row r="175" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC174" s="32"/>
+      <c r="AD174" s="16"/>
+    </row>
+    <row r="175" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -6186,9 +6374,10 @@
       <c r="Z175" s="5"/>
       <c r="AA175" s="6"/>
       <c r="AB175" s="7"/>
-      <c r="AC175" s="16"/>
-    </row>
-    <row r="176" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC175" s="32"/>
+      <c r="AD175" s="16"/>
+    </row>
+    <row r="176" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -6217,9 +6406,10 @@
       <c r="Z176" s="5"/>
       <c r="AA176" s="6"/>
       <c r="AB176" s="7"/>
-      <c r="AC176" s="16"/>
-    </row>
-    <row r="177" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC176" s="32"/>
+      <c r="AD176" s="16"/>
+    </row>
+    <row r="177" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -6248,9 +6438,10 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="6"/>
       <c r="AB177" s="7"/>
-      <c r="AC177" s="16"/>
-    </row>
-    <row r="178" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC177" s="32"/>
+      <c r="AD177" s="16"/>
+    </row>
+    <row r="178" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -6279,9 +6470,10 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="6"/>
       <c r="AB178" s="7"/>
-      <c r="AC178" s="16"/>
-    </row>
-    <row r="179" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC178" s="32"/>
+      <c r="AD178" s="16"/>
+    </row>
+    <row r="179" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -6310,9 +6502,10 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="6"/>
       <c r="AB179" s="7"/>
-      <c r="AC179" s="16"/>
-    </row>
-    <row r="180" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC179" s="32"/>
+      <c r="AD179" s="16"/>
+    </row>
+    <row r="180" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -6341,9 +6534,10 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="6"/>
       <c r="AB180" s="7"/>
-      <c r="AC180" s="16"/>
-    </row>
-    <row r="181" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC180" s="32"/>
+      <c r="AD180" s="16"/>
+    </row>
+    <row r="181" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -6372,9 +6566,10 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="6"/>
       <c r="AB181" s="7"/>
-      <c r="AC181" s="16"/>
-    </row>
-    <row r="182" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC181" s="32"/>
+      <c r="AD181" s="16"/>
+    </row>
+    <row r="182" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -6403,9 +6598,10 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="6"/>
       <c r="AB182" s="7"/>
-      <c r="AC182" s="16"/>
-    </row>
-    <row r="183" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC182" s="32"/>
+      <c r="AD182" s="16"/>
+    </row>
+    <row r="183" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -6434,9 +6630,10 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="6"/>
       <c r="AB183" s="7"/>
-      <c r="AC183" s="16"/>
-    </row>
-    <row r="184" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC183" s="32"/>
+      <c r="AD183" s="16"/>
+    </row>
+    <row r="184" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -6465,9 +6662,10 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="6"/>
       <c r="AB184" s="7"/>
-      <c r="AC184" s="16"/>
-    </row>
-    <row r="185" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC184" s="32"/>
+      <c r="AD184" s="16"/>
+    </row>
+    <row r="185" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
@@ -6496,9 +6694,10 @@
       <c r="Z185" s="5"/>
       <c r="AA185" s="6"/>
       <c r="AB185" s="7"/>
-      <c r="AC185" s="16"/>
-    </row>
-    <row r="186" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC185" s="32"/>
+      <c r="AD185" s="16"/>
+    </row>
+    <row r="186" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
@@ -6527,9 +6726,10 @@
       <c r="Z186" s="5"/>
       <c r="AA186" s="6"/>
       <c r="AB186" s="7"/>
-      <c r="AC186" s="16"/>
-    </row>
-    <row r="187" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC186" s="32"/>
+      <c r="AD186" s="16"/>
+    </row>
+    <row r="187" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
@@ -6558,9 +6758,10 @@
       <c r="Z187" s="5"/>
       <c r="AA187" s="6"/>
       <c r="AB187" s="7"/>
-      <c r="AC187" s="16"/>
-    </row>
-    <row r="188" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC187" s="32"/>
+      <c r="AD187" s="16"/>
+    </row>
+    <row r="188" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
@@ -6589,9 +6790,10 @@
       <c r="Z188" s="5"/>
       <c r="AA188" s="6"/>
       <c r="AB188" s="7"/>
-      <c r="AC188" s="16"/>
-    </row>
-    <row r="189" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC188" s="32"/>
+      <c r="AD188" s="16"/>
+    </row>
+    <row r="189" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
@@ -6620,9 +6822,10 @@
       <c r="Z189" s="5"/>
       <c r="AA189" s="6"/>
       <c r="AB189" s="7"/>
-      <c r="AC189" s="16"/>
-    </row>
-    <row r="190" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC189" s="32"/>
+      <c r="AD189" s="16"/>
+    </row>
+    <row r="190" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
@@ -6651,9 +6854,10 @@
       <c r="Z190" s="5"/>
       <c r="AA190" s="6"/>
       <c r="AB190" s="7"/>
-      <c r="AC190" s="16"/>
-    </row>
-    <row r="191" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC190" s="32"/>
+      <c r="AD190" s="16"/>
+    </row>
+    <row r="191" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -6682,9 +6886,10 @@
       <c r="Z191" s="5"/>
       <c r="AA191" s="6"/>
       <c r="AB191" s="7"/>
-      <c r="AC191" s="16"/>
-    </row>
-    <row r="192" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC191" s="32"/>
+      <c r="AD191" s="16"/>
+    </row>
+    <row r="192" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
@@ -6713,9 +6918,10 @@
       <c r="Z192" s="5"/>
       <c r="AA192" s="6"/>
       <c r="AB192" s="7"/>
-      <c r="AC192" s="16"/>
-    </row>
-    <row r="193" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC192" s="32"/>
+      <c r="AD192" s="16"/>
+    </row>
+    <row r="193" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
@@ -6744,9 +6950,10 @@
       <c r="Z193" s="5"/>
       <c r="AA193" s="6"/>
       <c r="AB193" s="7"/>
-      <c r="AC193" s="16"/>
-    </row>
-    <row r="194" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC193" s="32"/>
+      <c r="AD193" s="16"/>
+    </row>
+    <row r="194" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
@@ -6775,9 +6982,10 @@
       <c r="Z194" s="5"/>
       <c r="AA194" s="6"/>
       <c r="AB194" s="7"/>
-      <c r="AC194" s="16"/>
-    </row>
-    <row r="195" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC194" s="32"/>
+      <c r="AD194" s="16"/>
+    </row>
+    <row r="195" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -6806,9 +7014,10 @@
       <c r="Z195" s="5"/>
       <c r="AA195" s="6"/>
       <c r="AB195" s="7"/>
-      <c r="AC195" s="16"/>
-    </row>
-    <row r="196" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC195" s="32"/>
+      <c r="AD195" s="16"/>
+    </row>
+    <row r="196" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -6837,9 +7046,10 @@
       <c r="Z196" s="5"/>
       <c r="AA196" s="6"/>
       <c r="AB196" s="7"/>
-      <c r="AC196" s="16"/>
-    </row>
-    <row r="197" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC196" s="32"/>
+      <c r="AD196" s="16"/>
+    </row>
+    <row r="197" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -6868,9 +7078,10 @@
       <c r="Z197" s="5"/>
       <c r="AA197" s="6"/>
       <c r="AB197" s="7"/>
-      <c r="AC197" s="16"/>
-    </row>
-    <row r="198" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC197" s="32"/>
+      <c r="AD197" s="16"/>
+    </row>
+    <row r="198" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -6899,9 +7110,10 @@
       <c r="Z198" s="5"/>
       <c r="AA198" s="6"/>
       <c r="AB198" s="7"/>
-      <c r="AC198" s="16"/>
-    </row>
-    <row r="199" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC198" s="32"/>
+      <c r="AD198" s="16"/>
+    </row>
+    <row r="199" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -6930,9 +7142,10 @@
       <c r="Z199" s="5"/>
       <c r="AA199" s="6"/>
       <c r="AB199" s="7"/>
-      <c r="AC199" s="16"/>
-    </row>
-    <row r="200" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC199" s="32"/>
+      <c r="AD199" s="16"/>
+    </row>
+    <row r="200" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
@@ -6961,9 +7174,10 @@
       <c r="Z200" s="5"/>
       <c r="AA200" s="6"/>
       <c r="AB200" s="7"/>
-      <c r="AC200" s="16"/>
-    </row>
-    <row r="201" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC200" s="32"/>
+      <c r="AD200" s="16"/>
+    </row>
+    <row r="201" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
@@ -6992,9 +7206,10 @@
       <c r="Z201" s="5"/>
       <c r="AA201" s="6"/>
       <c r="AB201" s="7"/>
-      <c r="AC201" s="16"/>
-    </row>
-    <row r="202" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC201" s="32"/>
+      <c r="AD201" s="16"/>
+    </row>
+    <row r="202" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
@@ -7023,9 +7238,10 @@
       <c r="Z202" s="5"/>
       <c r="AA202" s="6"/>
       <c r="AB202" s="7"/>
-      <c r="AC202" s="16"/>
-    </row>
-    <row r="203" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC202" s="32"/>
+      <c r="AD202" s="16"/>
+    </row>
+    <row r="203" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -7054,9 +7270,10 @@
       <c r="Z203" s="5"/>
       <c r="AA203" s="6"/>
       <c r="AB203" s="7"/>
-      <c r="AC203" s="16"/>
-    </row>
-    <row r="204" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC203" s="32"/>
+      <c r="AD203" s="16"/>
+    </row>
+    <row r="204" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -7085,9 +7302,10 @@
       <c r="Z204" s="5"/>
       <c r="AA204" s="6"/>
       <c r="AB204" s="7"/>
-      <c r="AC204" s="16"/>
-    </row>
-    <row r="205" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC204" s="32"/>
+      <c r="AD204" s="16"/>
+    </row>
+    <row r="205" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
@@ -7116,9 +7334,10 @@
       <c r="Z205" s="5"/>
       <c r="AA205" s="6"/>
       <c r="AB205" s="7"/>
-      <c r="AC205" s="16"/>
-    </row>
-    <row r="206" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC205" s="32"/>
+      <c r="AD205" s="16"/>
+    </row>
+    <row r="206" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
@@ -7147,9 +7366,10 @@
       <c r="Z206" s="5"/>
       <c r="AA206" s="6"/>
       <c r="AB206" s="7"/>
-      <c r="AC206" s="16"/>
-    </row>
-    <row r="207" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC206" s="32"/>
+      <c r="AD206" s="16"/>
+    </row>
+    <row r="207" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
@@ -7178,9 +7398,10 @@
       <c r="Z207" s="5"/>
       <c r="AA207" s="6"/>
       <c r="AB207" s="7"/>
-      <c r="AC207" s="16"/>
-    </row>
-    <row r="208" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC207" s="32"/>
+      <c r="AD207" s="16"/>
+    </row>
+    <row r="208" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
@@ -7209,9 +7430,10 @@
       <c r="Z208" s="5"/>
       <c r="AA208" s="6"/>
       <c r="AB208" s="7"/>
-      <c r="AC208" s="16"/>
-    </row>
-    <row r="209" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC208" s="32"/>
+      <c r="AD208" s="16"/>
+    </row>
+    <row r="209" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
@@ -7240,9 +7462,10 @@
       <c r="Z209" s="5"/>
       <c r="AA209" s="6"/>
       <c r="AB209" s="7"/>
-      <c r="AC209" s="16"/>
-    </row>
-    <row r="210" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC209" s="32"/>
+      <c r="AD209" s="16"/>
+    </row>
+    <row r="210" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="21"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
@@ -7271,9 +7494,10 @@
       <c r="Z210" s="5"/>
       <c r="AA210" s="6"/>
       <c r="AB210" s="7"/>
-      <c r="AC210" s="16"/>
-    </row>
-    <row r="211" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC210" s="32"/>
+      <c r="AD210" s="16"/>
+    </row>
+    <row r="211" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
@@ -7302,9 +7526,10 @@
       <c r="Z211" s="5"/>
       <c r="AA211" s="6"/>
       <c r="AB211" s="7"/>
-      <c r="AC211" s="16"/>
-    </row>
-    <row r="212" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC211" s="32"/>
+      <c r="AD211" s="16"/>
+    </row>
+    <row r="212" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
@@ -7333,9 +7558,10 @@
       <c r="Z212" s="5"/>
       <c r="AA212" s="6"/>
       <c r="AB212" s="7"/>
-      <c r="AC212" s="16"/>
-    </row>
-    <row r="213" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC212" s="32"/>
+      <c r="AD212" s="16"/>
+    </row>
+    <row r="213" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="21"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -7364,9 +7590,10 @@
       <c r="Z213" s="5"/>
       <c r="AA213" s="6"/>
       <c r="AB213" s="7"/>
-      <c r="AC213" s="16"/>
-    </row>
-    <row r="214" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC213" s="32"/>
+      <c r="AD213" s="16"/>
+    </row>
+    <row r="214" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
@@ -7395,9 +7622,10 @@
       <c r="Z214" s="5"/>
       <c r="AA214" s="6"/>
       <c r="AB214" s="7"/>
-      <c r="AC214" s="16"/>
-    </row>
-    <row r="215" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC214" s="32"/>
+      <c r="AD214" s="16"/>
+    </row>
+    <row r="215" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
@@ -7426,9 +7654,10 @@
       <c r="Z215" s="5"/>
       <c r="AA215" s="6"/>
       <c r="AB215" s="7"/>
-      <c r="AC215" s="16"/>
-    </row>
-    <row r="216" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC215" s="32"/>
+      <c r="AD215" s="16"/>
+    </row>
+    <row r="216" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
@@ -7457,9 +7686,10 @@
       <c r="Z216" s="5"/>
       <c r="AA216" s="6"/>
       <c r="AB216" s="7"/>
-      <c r="AC216" s="16"/>
-    </row>
-    <row r="217" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC216" s="32"/>
+      <c r="AD216" s="16"/>
+    </row>
+    <row r="217" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="21"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
@@ -7488,9 +7718,10 @@
       <c r="Z217" s="5"/>
       <c r="AA217" s="6"/>
       <c r="AB217" s="7"/>
-      <c r="AC217" s="16"/>
-    </row>
-    <row r="218" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC217" s="32"/>
+      <c r="AD217" s="16"/>
+    </row>
+    <row r="218" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="21"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
@@ -7519,9 +7750,10 @@
       <c r="Z218" s="5"/>
       <c r="AA218" s="6"/>
       <c r="AB218" s="7"/>
-      <c r="AC218" s="16"/>
-    </row>
-    <row r="219" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC218" s="32"/>
+      <c r="AD218" s="16"/>
+    </row>
+    <row r="219" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="21"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
@@ -7550,9 +7782,10 @@
       <c r="Z219" s="5"/>
       <c r="AA219" s="6"/>
       <c r="AB219" s="7"/>
-      <c r="AC219" s="16"/>
-    </row>
-    <row r="220" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC219" s="32"/>
+      <c r="AD219" s="16"/>
+    </row>
+    <row r="220" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
@@ -7581,9 +7814,10 @@
       <c r="Z220" s="5"/>
       <c r="AA220" s="6"/>
       <c r="AB220" s="7"/>
-      <c r="AC220" s="16"/>
-    </row>
-    <row r="221" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC220" s="32"/>
+      <c r="AD220" s="16"/>
+    </row>
+    <row r="221" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
@@ -7612,9 +7846,10 @@
       <c r="Z221" s="5"/>
       <c r="AA221" s="6"/>
       <c r="AB221" s="7"/>
-      <c r="AC221" s="16"/>
-    </row>
-    <row r="222" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC221" s="32"/>
+      <c r="AD221" s="16"/>
+    </row>
+    <row r="222" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -7643,9 +7878,10 @@
       <c r="Z222" s="5"/>
       <c r="AA222" s="6"/>
       <c r="AB222" s="7"/>
-      <c r="AC222" s="16"/>
-    </row>
-    <row r="223" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC222" s="32"/>
+      <c r="AD222" s="16"/>
+    </row>
+    <row r="223" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="21"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -7674,9 +7910,10 @@
       <c r="Z223" s="5"/>
       <c r="AA223" s="6"/>
       <c r="AB223" s="7"/>
-      <c r="AC223" s="16"/>
-    </row>
-    <row r="224" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC223" s="32"/>
+      <c r="AD223" s="16"/>
+    </row>
+    <row r="224" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -7705,9 +7942,10 @@
       <c r="Z224" s="5"/>
       <c r="AA224" s="6"/>
       <c r="AB224" s="7"/>
-      <c r="AC224" s="16"/>
-    </row>
-    <row r="225" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC224" s="32"/>
+      <c r="AD224" s="16"/>
+    </row>
+    <row r="225" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
@@ -7736,9 +7974,10 @@
       <c r="Z225" s="5"/>
       <c r="AA225" s="6"/>
       <c r="AB225" s="7"/>
-      <c r="AC225" s="16"/>
-    </row>
-    <row r="226" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC225" s="32"/>
+      <c r="AD225" s="16"/>
+    </row>
+    <row r="226" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="21"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -7767,9 +8006,10 @@
       <c r="Z226" s="5"/>
       <c r="AA226" s="6"/>
       <c r="AB226" s="7"/>
-      <c r="AC226" s="16"/>
-    </row>
-    <row r="227" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC226" s="32"/>
+      <c r="AD226" s="16"/>
+    </row>
+    <row r="227" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="21"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
@@ -7798,9 +8038,10 @@
       <c r="Z227" s="5"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="7"/>
-      <c r="AC227" s="16"/>
-    </row>
-    <row r="228" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC227" s="32"/>
+      <c r="AD227" s="16"/>
+    </row>
+    <row r="228" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="21"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
@@ -7829,9 +8070,10 @@
       <c r="Z228" s="5"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="7"/>
-      <c r="AC228" s="16"/>
-    </row>
-    <row r="229" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC228" s="32"/>
+      <c r="AD228" s="16"/>
+    </row>
+    <row r="229" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
@@ -7860,9 +8102,10 @@
       <c r="Z229" s="5"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="7"/>
-      <c r="AC229" s="16"/>
-    </row>
-    <row r="230" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC229" s="32"/>
+      <c r="AD229" s="16"/>
+    </row>
+    <row r="230" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="21"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
@@ -7891,9 +8134,10 @@
       <c r="Z230" s="5"/>
       <c r="AA230" s="6"/>
       <c r="AB230" s="7"/>
-      <c r="AC230" s="16"/>
-    </row>
-    <row r="231" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC230" s="32"/>
+      <c r="AD230" s="16"/>
+    </row>
+    <row r="231" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="21"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
@@ -7922,9 +8166,10 @@
       <c r="Z231" s="5"/>
       <c r="AA231" s="6"/>
       <c r="AB231" s="7"/>
-      <c r="AC231" s="16"/>
-    </row>
-    <row r="232" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC231" s="32"/>
+      <c r="AD231" s="16"/>
+    </row>
+    <row r="232" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
@@ -7953,9 +8198,10 @@
       <c r="Z232" s="5"/>
       <c r="AA232" s="6"/>
       <c r="AB232" s="7"/>
-      <c r="AC232" s="16"/>
-    </row>
-    <row r="233" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC232" s="32"/>
+      <c r="AD232" s="16"/>
+    </row>
+    <row r="233" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
@@ -7984,9 +8230,10 @@
       <c r="Z233" s="5"/>
       <c r="AA233" s="6"/>
       <c r="AB233" s="7"/>
-      <c r="AC233" s="16"/>
-    </row>
-    <row r="234" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC233" s="32"/>
+      <c r="AD233" s="16"/>
+    </row>
+    <row r="234" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="21"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
@@ -8015,9 +8262,10 @@
       <c r="Z234" s="5"/>
       <c r="AA234" s="6"/>
       <c r="AB234" s="7"/>
-      <c r="AC234" s="16"/>
-    </row>
-    <row r="235" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC234" s="32"/>
+      <c r="AD234" s="16"/>
+    </row>
+    <row r="235" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
@@ -8046,9 +8294,10 @@
       <c r="Z235" s="5"/>
       <c r="AA235" s="6"/>
       <c r="AB235" s="7"/>
-      <c r="AC235" s="16"/>
-    </row>
-    <row r="236" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC235" s="32"/>
+      <c r="AD235" s="16"/>
+    </row>
+    <row r="236" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
@@ -8077,9 +8326,10 @@
       <c r="Z236" s="5"/>
       <c r="AA236" s="6"/>
       <c r="AB236" s="7"/>
-      <c r="AC236" s="16"/>
-    </row>
-    <row r="237" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC236" s="32"/>
+      <c r="AD236" s="16"/>
+    </row>
+    <row r="237" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
@@ -8108,9 +8358,10 @@
       <c r="Z237" s="5"/>
       <c r="AA237" s="6"/>
       <c r="AB237" s="7"/>
-      <c r="AC237" s="16"/>
-    </row>
-    <row r="238" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC237" s="32"/>
+      <c r="AD237" s="16"/>
+    </row>
+    <row r="238" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -8139,9 +8390,10 @@
       <c r="Z238" s="5"/>
       <c r="AA238" s="6"/>
       <c r="AB238" s="7"/>
-      <c r="AC238" s="16"/>
-    </row>
-    <row r="239" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC238" s="32"/>
+      <c r="AD238" s="16"/>
+    </row>
+    <row r="239" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
@@ -8170,9 +8422,10 @@
       <c r="Z239" s="5"/>
       <c r="AA239" s="6"/>
       <c r="AB239" s="7"/>
-      <c r="AC239" s="16"/>
-    </row>
-    <row r="240" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC239" s="32"/>
+      <c r="AD239" s="16"/>
+    </row>
+    <row r="240" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="21"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
@@ -8201,9 +8454,10 @@
       <c r="Z240" s="5"/>
       <c r="AA240" s="6"/>
       <c r="AB240" s="7"/>
-      <c r="AC240" s="16"/>
-    </row>
-    <row r="241" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC240" s="32"/>
+      <c r="AD240" s="16"/>
+    </row>
+    <row r="241" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
@@ -8232,9 +8486,10 @@
       <c r="Z241" s="5"/>
       <c r="AA241" s="6"/>
       <c r="AB241" s="7"/>
-      <c r="AC241" s="16"/>
-    </row>
-    <row r="242" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC241" s="32"/>
+      <c r="AD241" s="16"/>
+    </row>
+    <row r="242" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
@@ -8263,9 +8518,10 @@
       <c r="Z242" s="5"/>
       <c r="AA242" s="6"/>
       <c r="AB242" s="7"/>
-      <c r="AC242" s="16"/>
-    </row>
-    <row r="243" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC242" s="32"/>
+      <c r="AD242" s="16"/>
+    </row>
+    <row r="243" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
@@ -8294,9 +8550,10 @@
       <c r="Z243" s="5"/>
       <c r="AA243" s="6"/>
       <c r="AB243" s="7"/>
-      <c r="AC243" s="16"/>
-    </row>
-    <row r="244" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC243" s="32"/>
+      <c r="AD243" s="16"/>
+    </row>
+    <row r="244" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="21"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -8325,9 +8582,10 @@
       <c r="Z244" s="5"/>
       <c r="AA244" s="6"/>
       <c r="AB244" s="7"/>
-      <c r="AC244" s="16"/>
-    </row>
-    <row r="245" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC244" s="32"/>
+      <c r="AD244" s="16"/>
+    </row>
+    <row r="245" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="21"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
@@ -8356,9 +8614,10 @@
       <c r="Z245" s="5"/>
       <c r="AA245" s="6"/>
       <c r="AB245" s="7"/>
-      <c r="AC245" s="16"/>
-    </row>
-    <row r="246" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC245" s="32"/>
+      <c r="AD245" s="16"/>
+    </row>
+    <row r="246" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="21"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
@@ -8387,9 +8646,10 @@
       <c r="Z246" s="5"/>
       <c r="AA246" s="6"/>
       <c r="AB246" s="7"/>
-      <c r="AC246" s="16"/>
-    </row>
-    <row r="247" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC246" s="32"/>
+      <c r="AD246" s="16"/>
+    </row>
+    <row r="247" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="21"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
@@ -8418,9 +8678,10 @@
       <c r="Z247" s="5"/>
       <c r="AA247" s="6"/>
       <c r="AB247" s="7"/>
-      <c r="AC247" s="16"/>
-    </row>
-    <row r="248" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC247" s="32"/>
+      <c r="AD247" s="16"/>
+    </row>
+    <row r="248" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="21"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -8449,9 +8710,10 @@
       <c r="Z248" s="5"/>
       <c r="AA248" s="6"/>
       <c r="AB248" s="7"/>
-      <c r="AC248" s="16"/>
-    </row>
-    <row r="249" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC248" s="32"/>
+      <c r="AD248" s="16"/>
+    </row>
+    <row r="249" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -8480,9 +8742,10 @@
       <c r="Z249" s="5"/>
       <c r="AA249" s="6"/>
       <c r="AB249" s="7"/>
-      <c r="AC249" s="16"/>
-    </row>
-    <row r="250" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC249" s="32"/>
+      <c r="AD249" s="16"/>
+    </row>
+    <row r="250" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -8511,9 +8774,10 @@
       <c r="Z250" s="5"/>
       <c r="AA250" s="6"/>
       <c r="AB250" s="7"/>
-      <c r="AC250" s="16"/>
-    </row>
-    <row r="251" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC250" s="32"/>
+      <c r="AD250" s="16"/>
+    </row>
+    <row r="251" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -8542,9 +8806,10 @@
       <c r="Z251" s="5"/>
       <c r="AA251" s="6"/>
       <c r="AB251" s="7"/>
-      <c r="AC251" s="16"/>
-    </row>
-    <row r="252" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC251" s="32"/>
+      <c r="AD251" s="16"/>
+    </row>
+    <row r="252" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -8573,9 +8838,10 @@
       <c r="Z252" s="5"/>
       <c r="AA252" s="6"/>
       <c r="AB252" s="7"/>
-      <c r="AC252" s="16"/>
-    </row>
-    <row r="253" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC252" s="32"/>
+      <c r="AD252" s="16"/>
+    </row>
+    <row r="253" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -8604,9 +8870,10 @@
       <c r="Z253" s="5"/>
       <c r="AA253" s="6"/>
       <c r="AB253" s="7"/>
-      <c r="AC253" s="16"/>
-    </row>
-    <row r="254" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC253" s="32"/>
+      <c r="AD253" s="16"/>
+    </row>
+    <row r="254" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="21"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
@@ -8635,9 +8902,10 @@
       <c r="Z254" s="5"/>
       <c r="AA254" s="6"/>
       <c r="AB254" s="7"/>
-      <c r="AC254" s="16"/>
-    </row>
-    <row r="255" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC254" s="32"/>
+      <c r="AD254" s="16"/>
+    </row>
+    <row r="255" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -8666,9 +8934,10 @@
       <c r="Z255" s="5"/>
       <c r="AA255" s="6"/>
       <c r="AB255" s="7"/>
-      <c r="AC255" s="16"/>
-    </row>
-    <row r="256" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC255" s="32"/>
+      <c r="AD255" s="16"/>
+    </row>
+    <row r="256" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
@@ -8697,9 +8966,10 @@
       <c r="Z256" s="5"/>
       <c r="AA256" s="6"/>
       <c r="AB256" s="7"/>
-      <c r="AC256" s="16"/>
-    </row>
-    <row r="257" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC256" s="32"/>
+      <c r="AD256" s="16"/>
+    </row>
+    <row r="257" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
@@ -8728,9 +8998,10 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="6"/>
       <c r="AB257" s="7"/>
-      <c r="AC257" s="16"/>
-    </row>
-    <row r="258" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC257" s="32"/>
+      <c r="AD257" s="16"/>
+    </row>
+    <row r="258" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="21"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
@@ -8759,9 +9030,10 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="6"/>
       <c r="AB258" s="7"/>
-      <c r="AC258" s="16"/>
-    </row>
-    <row r="259" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC258" s="32"/>
+      <c r="AD258" s="16"/>
+    </row>
+    <row r="259" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="21"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
@@ -8790,9 +9062,10 @@
       <c r="Z259" s="5"/>
       <c r="AA259" s="6"/>
       <c r="AB259" s="7"/>
-      <c r="AC259" s="16"/>
-    </row>
-    <row r="260" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC259" s="32"/>
+      <c r="AD259" s="16"/>
+    </row>
+    <row r="260" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="21"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -8821,9 +9094,10 @@
       <c r="Z260" s="5"/>
       <c r="AA260" s="6"/>
       <c r="AB260" s="7"/>
-      <c r="AC260" s="16"/>
-    </row>
-    <row r="261" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC260" s="32"/>
+      <c r="AD260" s="16"/>
+    </row>
+    <row r="261" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="21"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
@@ -8852,9 +9126,10 @@
       <c r="Z261" s="5"/>
       <c r="AA261" s="6"/>
       <c r="AB261" s="7"/>
-      <c r="AC261" s="16"/>
-    </row>
-    <row r="262" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC261" s="32"/>
+      <c r="AD261" s="16"/>
+    </row>
+    <row r="262" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="21"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
@@ -8883,9 +9158,10 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="6"/>
       <c r="AB262" s="7"/>
-      <c r="AC262" s="16"/>
-    </row>
-    <row r="263" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC262" s="32"/>
+      <c r="AD262" s="16"/>
+    </row>
+    <row r="263" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
@@ -8914,9 +9190,10 @@
       <c r="Z263" s="5"/>
       <c r="AA263" s="6"/>
       <c r="AB263" s="7"/>
-      <c r="AC263" s="16"/>
-    </row>
-    <row r="264" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC263" s="32"/>
+      <c r="AD263" s="16"/>
+    </row>
+    <row r="264" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
@@ -8945,9 +9222,10 @@
       <c r="Z264" s="5"/>
       <c r="AA264" s="6"/>
       <c r="AB264" s="7"/>
-      <c r="AC264" s="16"/>
-    </row>
-    <row r="265" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC264" s="32"/>
+      <c r="AD264" s="16"/>
+    </row>
+    <row r="265" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="21"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
@@ -8976,9 +9254,10 @@
       <c r="Z265" s="5"/>
       <c r="AA265" s="6"/>
       <c r="AB265" s="7"/>
-      <c r="AC265" s="16"/>
-    </row>
-    <row r="266" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC265" s="32"/>
+      <c r="AD265" s="16"/>
+    </row>
+    <row r="266" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="21"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
@@ -9007,9 +9286,10 @@
       <c r="Z266" s="5"/>
       <c r="AA266" s="6"/>
       <c r="AB266" s="7"/>
-      <c r="AC266" s="16"/>
-    </row>
-    <row r="267" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC266" s="32"/>
+      <c r="AD266" s="16"/>
+    </row>
+    <row r="267" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="21"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
@@ -9038,9 +9318,10 @@
       <c r="Z267" s="5"/>
       <c r="AA267" s="6"/>
       <c r="AB267" s="7"/>
-      <c r="AC267" s="16"/>
-    </row>
-    <row r="268" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC267" s="32"/>
+      <c r="AD267" s="16"/>
+    </row>
+    <row r="268" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="21"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
@@ -9069,9 +9350,10 @@
       <c r="Z268" s="5"/>
       <c r="AA268" s="6"/>
       <c r="AB268" s="7"/>
-      <c r="AC268" s="16"/>
-    </row>
-    <row r="269" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC268" s="32"/>
+      <c r="AD268" s="16"/>
+    </row>
+    <row r="269" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="21"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
@@ -9100,9 +9382,10 @@
       <c r="Z269" s="5"/>
       <c r="AA269" s="6"/>
       <c r="AB269" s="7"/>
-      <c r="AC269" s="16"/>
-    </row>
-    <row r="270" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC269" s="32"/>
+      <c r="AD269" s="16"/>
+    </row>
+    <row r="270" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -9131,9 +9414,10 @@
       <c r="Z270" s="5"/>
       <c r="AA270" s="6"/>
       <c r="AB270" s="7"/>
-      <c r="AC270" s="16"/>
-    </row>
-    <row r="271" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC270" s="32"/>
+      <c r="AD270" s="16"/>
+    </row>
+    <row r="271" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
@@ -9162,9 +9446,10 @@
       <c r="Z271" s="5"/>
       <c r="AA271" s="6"/>
       <c r="AB271" s="7"/>
-      <c r="AC271" s="16"/>
-    </row>
-    <row r="272" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC271" s="32"/>
+      <c r="AD271" s="16"/>
+    </row>
+    <row r="272" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="21"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -9193,9 +9478,10 @@
       <c r="Z272" s="5"/>
       <c r="AA272" s="6"/>
       <c r="AB272" s="7"/>
-      <c r="AC272" s="16"/>
-    </row>
-    <row r="273" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC272" s="32"/>
+      <c r="AD272" s="16"/>
+    </row>
+    <row r="273" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="21"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
@@ -9224,9 +9510,10 @@
       <c r="Z273" s="5"/>
       <c r="AA273" s="6"/>
       <c r="AB273" s="7"/>
-      <c r="AC273" s="16"/>
-    </row>
-    <row r="274" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC273" s="32"/>
+      <c r="AD273" s="16"/>
+    </row>
+    <row r="274" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="21"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
@@ -9255,9 +9542,10 @@
       <c r="Z274" s="5"/>
       <c r="AA274" s="6"/>
       <c r="AB274" s="7"/>
-      <c r="AC274" s="16"/>
-    </row>
-    <row r="275" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC274" s="32"/>
+      <c r="AD274" s="16"/>
+    </row>
+    <row r="275" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="21"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
@@ -9286,9 +9574,10 @@
       <c r="Z275" s="5"/>
       <c r="AA275" s="6"/>
       <c r="AB275" s="7"/>
-      <c r="AC275" s="16"/>
-    </row>
-    <row r="276" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC275" s="32"/>
+      <c r="AD275" s="16"/>
+    </row>
+    <row r="276" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9317,9 +9606,10 @@
       <c r="Z276" s="5"/>
       <c r="AA276" s="6"/>
       <c r="AB276" s="7"/>
-      <c r="AC276" s="16"/>
-    </row>
-    <row r="277" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC276" s="32"/>
+      <c r="AD276" s="16"/>
+    </row>
+    <row r="277" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9348,9 +9638,10 @@
       <c r="Z277" s="5"/>
       <c r="AA277" s="6"/>
       <c r="AB277" s="7"/>
-      <c r="AC277" s="16"/>
-    </row>
-    <row r="278" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC277" s="32"/>
+      <c r="AD277" s="16"/>
+    </row>
+    <row r="278" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -9379,9 +9670,10 @@
       <c r="Z278" s="5"/>
       <c r="AA278" s="6"/>
       <c r="AB278" s="7"/>
-      <c r="AC278" s="16"/>
-    </row>
-    <row r="279" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC278" s="32"/>
+      <c r="AD278" s="16"/>
+    </row>
+    <row r="279" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="21"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -9410,9 +9702,10 @@
       <c r="Z279" s="5"/>
       <c r="AA279" s="6"/>
       <c r="AB279" s="7"/>
-      <c r="AC279" s="16"/>
-    </row>
-    <row r="280" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC279" s="32"/>
+      <c r="AD279" s="16"/>
+    </row>
+    <row r="280" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="21"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -9441,9 +9734,10 @@
       <c r="Z280" s="5"/>
       <c r="AA280" s="6"/>
       <c r="AB280" s="7"/>
-      <c r="AC280" s="16"/>
-    </row>
-    <row r="281" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC280" s="32"/>
+      <c r="AD280" s="16"/>
+    </row>
+    <row r="281" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="21"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
@@ -9472,9 +9766,10 @@
       <c r="Z281" s="5"/>
       <c r="AA281" s="6"/>
       <c r="AB281" s="7"/>
-      <c r="AC281" s="16"/>
-    </row>
-    <row r="282" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC281" s="32"/>
+      <c r="AD281" s="16"/>
+    </row>
+    <row r="282" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="21"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
@@ -9503,9 +9798,10 @@
       <c r="Z282" s="5"/>
       <c r="AA282" s="6"/>
       <c r="AB282" s="7"/>
-      <c r="AC282" s="16"/>
-    </row>
-    <row r="283" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC282" s="32"/>
+      <c r="AD282" s="16"/>
+    </row>
+    <row r="283" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="21"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
@@ -9534,9 +9830,10 @@
       <c r="Z283" s="5"/>
       <c r="AA283" s="6"/>
       <c r="AB283" s="7"/>
-      <c r="AC283" s="16"/>
-    </row>
-    <row r="284" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC283" s="32"/>
+      <c r="AD283" s="16"/>
+    </row>
+    <row r="284" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
@@ -9565,9 +9862,10 @@
       <c r="Z284" s="5"/>
       <c r="AA284" s="6"/>
       <c r="AB284" s="7"/>
-      <c r="AC284" s="16"/>
-    </row>
-    <row r="285" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC284" s="32"/>
+      <c r="AD284" s="16"/>
+    </row>
+    <row r="285" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
@@ -9596,9 +9894,10 @@
       <c r="Z285" s="5"/>
       <c r="AA285" s="6"/>
       <c r="AB285" s="7"/>
-      <c r="AC285" s="16"/>
-    </row>
-    <row r="286" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC285" s="32"/>
+      <c r="AD285" s="16"/>
+    </row>
+    <row r="286" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
@@ -9627,9 +9926,10 @@
       <c r="Z286" s="5"/>
       <c r="AA286" s="6"/>
       <c r="AB286" s="7"/>
-      <c r="AC286" s="16"/>
-    </row>
-    <row r="287" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC286" s="32"/>
+      <c r="AD286" s="16"/>
+    </row>
+    <row r="287" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
@@ -9658,9 +9958,10 @@
       <c r="Z287" s="5"/>
       <c r="AA287" s="6"/>
       <c r="AB287" s="7"/>
-      <c r="AC287" s="16"/>
-    </row>
-    <row r="288" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC287" s="32"/>
+      <c r="AD287" s="16"/>
+    </row>
+    <row r="288" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="21"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
@@ -9689,9 +9990,10 @@
       <c r="Z288" s="5"/>
       <c r="AA288" s="6"/>
       <c r="AB288" s="7"/>
-      <c r="AC288" s="16"/>
-    </row>
-    <row r="289" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC288" s="32"/>
+      <c r="AD288" s="16"/>
+    </row>
+    <row r="289" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="21"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
@@ -9720,9 +10022,10 @@
       <c r="Z289" s="5"/>
       <c r="AA289" s="6"/>
       <c r="AB289" s="7"/>
-      <c r="AC289" s="16"/>
-    </row>
-    <row r="290" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC289" s="32"/>
+      <c r="AD289" s="16"/>
+    </row>
+    <row r="290" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -9751,9 +10054,10 @@
       <c r="Z290" s="5"/>
       <c r="AA290" s="6"/>
       <c r="AB290" s="7"/>
-      <c r="AC290" s="16"/>
-    </row>
-    <row r="291" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC290" s="32"/>
+      <c r="AD290" s="16"/>
+    </row>
+    <row r="291" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -9782,9 +10086,10 @@
       <c r="Z291" s="5"/>
       <c r="AA291" s="6"/>
       <c r="AB291" s="7"/>
-      <c r="AC291" s="16"/>
-    </row>
-    <row r="292" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC291" s="32"/>
+      <c r="AD291" s="16"/>
+    </row>
+    <row r="292" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -9813,9 +10118,10 @@
       <c r="Z292" s="5"/>
       <c r="AA292" s="6"/>
       <c r="AB292" s="7"/>
-      <c r="AC292" s="16"/>
-    </row>
-    <row r="293" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC292" s="32"/>
+      <c r="AD292" s="16"/>
+    </row>
+    <row r="293" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -9844,9 +10150,10 @@
       <c r="Z293" s="5"/>
       <c r="AA293" s="6"/>
       <c r="AB293" s="7"/>
-      <c r="AC293" s="16"/>
-    </row>
-    <row r="294" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC293" s="32"/>
+      <c r="AD293" s="16"/>
+    </row>
+    <row r="294" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -9875,9 +10182,10 @@
       <c r="Z294" s="5"/>
       <c r="AA294" s="6"/>
       <c r="AB294" s="7"/>
-      <c r="AC294" s="16"/>
-    </row>
-    <row r="295" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC294" s="32"/>
+      <c r="AD294" s="16"/>
+    </row>
+    <row r="295" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="21"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -9906,9 +10214,10 @@
       <c r="Z295" s="5"/>
       <c r="AA295" s="6"/>
       <c r="AB295" s="7"/>
-      <c r="AC295" s="16"/>
-    </row>
-    <row r="296" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC295" s="32"/>
+      <c r="AD295" s="16"/>
+    </row>
+    <row r="296" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -9937,9 +10246,10 @@
       <c r="Z296" s="5"/>
       <c r="AA296" s="6"/>
       <c r="AB296" s="7"/>
-      <c r="AC296" s="16"/>
-    </row>
-    <row r="297" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC296" s="32"/>
+      <c r="AD296" s="16"/>
+    </row>
+    <row r="297" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="21"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
@@ -9968,9 +10278,10 @@
       <c r="Z297" s="5"/>
       <c r="AA297" s="6"/>
       <c r="AB297" s="7"/>
-      <c r="AC297" s="16"/>
-    </row>
-    <row r="298" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC297" s="32"/>
+      <c r="AD297" s="16"/>
+    </row>
+    <row r="298" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -9999,9 +10310,10 @@
       <c r="Z298" s="5"/>
       <c r="AA298" s="6"/>
       <c r="AB298" s="7"/>
-      <c r="AC298" s="16"/>
-    </row>
-    <row r="299" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC298" s="32"/>
+      <c r="AD298" s="16"/>
+    </row>
+    <row r="299" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
@@ -10030,9 +10342,10 @@
       <c r="Z299" s="5"/>
       <c r="AA299" s="6"/>
       <c r="AB299" s="7"/>
-      <c r="AC299" s="16"/>
-    </row>
-    <row r="300" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC299" s="32"/>
+      <c r="AD299" s="16"/>
+    </row>
+    <row r="300" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="21"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
@@ -10061,9 +10374,10 @@
       <c r="Z300" s="5"/>
       <c r="AA300" s="6"/>
       <c r="AB300" s="7"/>
-      <c r="AC300" s="16"/>
-    </row>
-    <row r="301" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC300" s="32"/>
+      <c r="AD300" s="16"/>
+    </row>
+    <row r="301" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="21"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
@@ -10092,9 +10406,10 @@
       <c r="Z301" s="5"/>
       <c r="AA301" s="6"/>
       <c r="AB301" s="7"/>
-      <c r="AC301" s="16"/>
-    </row>
-    <row r="302" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC301" s="32"/>
+      <c r="AD301" s="16"/>
+    </row>
+    <row r="302" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="21"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
@@ -10123,9 +10438,10 @@
       <c r="Z302" s="5"/>
       <c r="AA302" s="6"/>
       <c r="AB302" s="7"/>
-      <c r="AC302" s="16"/>
-    </row>
-    <row r="303" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC302" s="32"/>
+      <c r="AD302" s="16"/>
+    </row>
+    <row r="303" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="21"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -10154,9 +10470,10 @@
       <c r="Z303" s="5"/>
       <c r="AA303" s="6"/>
       <c r="AB303" s="7"/>
-      <c r="AC303" s="16"/>
-    </row>
-    <row r="304" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC303" s="32"/>
+      <c r="AD303" s="16"/>
+    </row>
+    <row r="304" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="21"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10185,9 +10502,10 @@
       <c r="Z304" s="5"/>
       <c r="AA304" s="6"/>
       <c r="AB304" s="7"/>
-      <c r="AC304" s="16"/>
-    </row>
-    <row r="305" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC304" s="32"/>
+      <c r="AD304" s="16"/>
+    </row>
+    <row r="305" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="21"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -10216,9 +10534,10 @@
       <c r="Z305" s="5"/>
       <c r="AA305" s="6"/>
       <c r="AB305" s="7"/>
-      <c r="AC305" s="16"/>
-    </row>
-    <row r="306" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC305" s="32"/>
+      <c r="AD305" s="16"/>
+    </row>
+    <row r="306" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="21"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -10247,9 +10566,10 @@
       <c r="Z306" s="5"/>
       <c r="AA306" s="6"/>
       <c r="AB306" s="7"/>
-      <c r="AC306" s="16"/>
-    </row>
-    <row r="307" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC306" s="32"/>
+      <c r="AD306" s="16"/>
+    </row>
+    <row r="307" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="21"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -10278,9 +10598,10 @@
       <c r="Z307" s="5"/>
       <c r="AA307" s="6"/>
       <c r="AB307" s="7"/>
-      <c r="AC307" s="16"/>
-    </row>
-    <row r="308" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC307" s="32"/>
+      <c r="AD307" s="16"/>
+    </row>
+    <row r="308" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="21"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
@@ -10309,9 +10630,10 @@
       <c r="Z308" s="5"/>
       <c r="AA308" s="6"/>
       <c r="AB308" s="7"/>
-      <c r="AC308" s="16"/>
-    </row>
-    <row r="309" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC308" s="32"/>
+      <c r="AD308" s="16"/>
+    </row>
+    <row r="309" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="21"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
@@ -10340,9 +10662,10 @@
       <c r="Z309" s="5"/>
       <c r="AA309" s="6"/>
       <c r="AB309" s="7"/>
-      <c r="AC309" s="16"/>
-    </row>
-    <row r="310" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC309" s="32"/>
+      <c r="AD309" s="16"/>
+    </row>
+    <row r="310" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="21"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
@@ -10371,9 +10694,10 @@
       <c r="Z310" s="5"/>
       <c r="AA310" s="6"/>
       <c r="AB310" s="7"/>
-      <c r="AC310" s="16"/>
-    </row>
-    <row r="311" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC310" s="32"/>
+      <c r="AD310" s="16"/>
+    </row>
+    <row r="311" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="21"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
@@ -10402,9 +10726,10 @@
       <c r="Z311" s="5"/>
       <c r="AA311" s="6"/>
       <c r="AB311" s="7"/>
-      <c r="AC311" s="16"/>
-    </row>
-    <row r="312" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC311" s="32"/>
+      <c r="AD311" s="16"/>
+    </row>
+    <row r="312" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="21"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
@@ -10433,9 +10758,10 @@
       <c r="Z312" s="5"/>
       <c r="AA312" s="6"/>
       <c r="AB312" s="7"/>
-      <c r="AC312" s="16"/>
-    </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC312" s="32"/>
+      <c r="AD312" s="16"/>
+    </row>
+    <row r="313" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A313" s="21"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
@@ -10444,7 +10770,7 @@
       <c r="F313" s="24"/>
       <c r="G313" s="24"/>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
@@ -10453,7 +10779,7 @@
       <c r="F314" s="24"/>
       <c r="G314" s="24"/>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A315" s="21"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
@@ -10462,7 +10788,7 @@
       <c r="F315" s="24"/>
       <c r="G315" s="24"/>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A316" s="21"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
@@ -10471,7 +10797,7 @@
       <c r="F316" s="24"/>
       <c r="G316" s="24"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A317" s="21"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
@@ -10480,7 +10806,7 @@
       <c r="F317" s="24"/>
       <c r="G317" s="24"/>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A318" s="21"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -10489,7 +10815,7 @@
       <c r="F318" s="24"/>
       <c r="G318" s="24"/>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A319" s="21"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
@@ -10498,7 +10824,7 @@
       <c r="F319" s="24"/>
       <c r="G319" s="24"/>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A320" s="21"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>

--- a/excel/sablonlar/ayo_maliyet_listesi.xlsx
+++ b/excel/sablonlar/ayo_maliyet_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1D7CB-24A4-47CA-B8FE-97E233EFBC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177102E7-873D-48B9-8499-7C046709ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,13 +388,10 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -687,7 +684,7 @@
   </sheetPr>
   <dimension ref="A1:AD487"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
@@ -6342,7 +6339,7 @@
       <c r="Z174" s="5"/>
       <c r="AA174" s="6"/>
       <c r="AB174" s="7"/>
-      <c r="AC174" s="32"/>
+      <c r="AC174" s="31"/>
       <c r="AD174" s="16"/>
     </row>
     <row r="175" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,7 +6371,7 @@
       <c r="Z175" s="5"/>
       <c r="AA175" s="6"/>
       <c r="AB175" s="7"/>
-      <c r="AC175" s="32"/>
+      <c r="AC175" s="31"/>
       <c r="AD175" s="16"/>
     </row>
     <row r="176" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,7 +6403,7 @@
       <c r="Z176" s="5"/>
       <c r="AA176" s="6"/>
       <c r="AB176" s="7"/>
-      <c r="AC176" s="32"/>
+      <c r="AC176" s="31"/>
       <c r="AD176" s="16"/>
     </row>
     <row r="177" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6438,7 +6435,7 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="6"/>
       <c r="AB177" s="7"/>
-      <c r="AC177" s="32"/>
+      <c r="AC177" s="31"/>
       <c r="AD177" s="16"/>
     </row>
     <row r="178" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="6"/>
       <c r="AB178" s="7"/>
-      <c r="AC178" s="32"/>
+      <c r="AC178" s="31"/>
       <c r="AD178" s="16"/>
     </row>
     <row r="179" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6502,7 +6499,7 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="6"/>
       <c r="AB179" s="7"/>
-      <c r="AC179" s="32"/>
+      <c r="AC179" s="31"/>
       <c r="AD179" s="16"/>
     </row>
     <row r="180" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,7 +6531,7 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="6"/>
       <c r="AB180" s="7"/>
-      <c r="AC180" s="32"/>
+      <c r="AC180" s="31"/>
       <c r="AD180" s="16"/>
     </row>
     <row r="181" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6566,7 +6563,7 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="6"/>
       <c r="AB181" s="7"/>
-      <c r="AC181" s="32"/>
+      <c r="AC181" s="31"/>
       <c r="AD181" s="16"/>
     </row>
     <row r="182" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6598,7 +6595,7 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="6"/>
       <c r="AB182" s="7"/>
-      <c r="AC182" s="32"/>
+      <c r="AC182" s="31"/>
       <c r="AD182" s="16"/>
     </row>
     <row r="183" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6630,7 +6627,7 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="6"/>
       <c r="AB183" s="7"/>
-      <c r="AC183" s="32"/>
+      <c r="AC183" s="31"/>
       <c r="AD183" s="16"/>
     </row>
     <row r="184" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6662,7 +6659,7 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="6"/>
       <c r="AB184" s="7"/>
-      <c r="AC184" s="32"/>
+      <c r="AC184" s="31"/>
       <c r="AD184" s="16"/>
     </row>
     <row r="185" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6694,7 +6691,7 @@
       <c r="Z185" s="5"/>
       <c r="AA185" s="6"/>
       <c r="AB185" s="7"/>
-      <c r="AC185" s="32"/>
+      <c r="AC185" s="31"/>
       <c r="AD185" s="16"/>
     </row>
     <row r="186" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6726,7 +6723,7 @@
       <c r="Z186" s="5"/>
       <c r="AA186" s="6"/>
       <c r="AB186" s="7"/>
-      <c r="AC186" s="32"/>
+      <c r="AC186" s="31"/>
       <c r="AD186" s="16"/>
     </row>
     <row r="187" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,7 +6755,7 @@
       <c r="Z187" s="5"/>
       <c r="AA187" s="6"/>
       <c r="AB187" s="7"/>
-      <c r="AC187" s="32"/>
+      <c r="AC187" s="31"/>
       <c r="AD187" s="16"/>
     </row>
     <row r="188" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6790,7 +6787,7 @@
       <c r="Z188" s="5"/>
       <c r="AA188" s="6"/>
       <c r="AB188" s="7"/>
-      <c r="AC188" s="32"/>
+      <c r="AC188" s="31"/>
       <c r="AD188" s="16"/>
     </row>
     <row r="189" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6822,7 +6819,7 @@
       <c r="Z189" s="5"/>
       <c r="AA189" s="6"/>
       <c r="AB189" s="7"/>
-      <c r="AC189" s="32"/>
+      <c r="AC189" s="31"/>
       <c r="AD189" s="16"/>
     </row>
     <row r="190" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,7 +6851,7 @@
       <c r="Z190" s="5"/>
       <c r="AA190" s="6"/>
       <c r="AB190" s="7"/>
-      <c r="AC190" s="32"/>
+      <c r="AC190" s="31"/>
       <c r="AD190" s="16"/>
     </row>
     <row r="191" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,7 +6883,7 @@
       <c r="Z191" s="5"/>
       <c r="AA191" s="6"/>
       <c r="AB191" s="7"/>
-      <c r="AC191" s="32"/>
+      <c r="AC191" s="31"/>
       <c r="AD191" s="16"/>
     </row>
     <row r="192" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6918,7 +6915,7 @@
       <c r="Z192" s="5"/>
       <c r="AA192" s="6"/>
       <c r="AB192" s="7"/>
-      <c r="AC192" s="32"/>
+      <c r="AC192" s="31"/>
       <c r="AD192" s="16"/>
     </row>
     <row r="193" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6950,7 +6947,7 @@
       <c r="Z193" s="5"/>
       <c r="AA193" s="6"/>
       <c r="AB193" s="7"/>
-      <c r="AC193" s="32"/>
+      <c r="AC193" s="31"/>
       <c r="AD193" s="16"/>
     </row>
     <row r="194" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6982,7 +6979,7 @@
       <c r="Z194" s="5"/>
       <c r="AA194" s="6"/>
       <c r="AB194" s="7"/>
-      <c r="AC194" s="32"/>
+      <c r="AC194" s="31"/>
       <c r="AD194" s="16"/>
     </row>
     <row r="195" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7014,7 +7011,7 @@
       <c r="Z195" s="5"/>
       <c r="AA195" s="6"/>
       <c r="AB195" s="7"/>
-      <c r="AC195" s="32"/>
+      <c r="AC195" s="31"/>
       <c r="AD195" s="16"/>
     </row>
     <row r="196" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7046,7 +7043,7 @@
       <c r="Z196" s="5"/>
       <c r="AA196" s="6"/>
       <c r="AB196" s="7"/>
-      <c r="AC196" s="32"/>
+      <c r="AC196" s="31"/>
       <c r="AD196" s="16"/>
     </row>
     <row r="197" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7078,7 +7075,7 @@
       <c r="Z197" s="5"/>
       <c r="AA197" s="6"/>
       <c r="AB197" s="7"/>
-      <c r="AC197" s="32"/>
+      <c r="AC197" s="31"/>
       <c r="AD197" s="16"/>
     </row>
     <row r="198" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7110,7 +7107,7 @@
       <c r="Z198" s="5"/>
       <c r="AA198" s="6"/>
       <c r="AB198" s="7"/>
-      <c r="AC198" s="32"/>
+      <c r="AC198" s="31"/>
       <c r="AD198" s="16"/>
     </row>
     <row r="199" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7142,7 +7139,7 @@
       <c r="Z199" s="5"/>
       <c r="AA199" s="6"/>
       <c r="AB199" s="7"/>
-      <c r="AC199" s="32"/>
+      <c r="AC199" s="31"/>
       <c r="AD199" s="16"/>
     </row>
     <row r="200" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7174,7 +7171,7 @@
       <c r="Z200" s="5"/>
       <c r="AA200" s="6"/>
       <c r="AB200" s="7"/>
-      <c r="AC200" s="32"/>
+      <c r="AC200" s="31"/>
       <c r="AD200" s="16"/>
     </row>
     <row r="201" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7206,7 +7203,7 @@
       <c r="Z201" s="5"/>
       <c r="AA201" s="6"/>
       <c r="AB201" s="7"/>
-      <c r="AC201" s="32"/>
+      <c r="AC201" s="31"/>
       <c r="AD201" s="16"/>
     </row>
     <row r="202" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7238,7 +7235,7 @@
       <c r="Z202" s="5"/>
       <c r="AA202" s="6"/>
       <c r="AB202" s="7"/>
-      <c r="AC202" s="32"/>
+      <c r="AC202" s="31"/>
       <c r="AD202" s="16"/>
     </row>
     <row r="203" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,7 +7267,7 @@
       <c r="Z203" s="5"/>
       <c r="AA203" s="6"/>
       <c r="AB203" s="7"/>
-      <c r="AC203" s="32"/>
+      <c r="AC203" s="31"/>
       <c r="AD203" s="16"/>
     </row>
     <row r="204" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7302,7 +7299,7 @@
       <c r="Z204" s="5"/>
       <c r="AA204" s="6"/>
       <c r="AB204" s="7"/>
-      <c r="AC204" s="32"/>
+      <c r="AC204" s="31"/>
       <c r="AD204" s="16"/>
     </row>
     <row r="205" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7334,7 +7331,7 @@
       <c r="Z205" s="5"/>
       <c r="AA205" s="6"/>
       <c r="AB205" s="7"/>
-      <c r="AC205" s="32"/>
+      <c r="AC205" s="31"/>
       <c r="AD205" s="16"/>
     </row>
     <row r="206" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7366,7 +7363,7 @@
       <c r="Z206" s="5"/>
       <c r="AA206" s="6"/>
       <c r="AB206" s="7"/>
-      <c r="AC206" s="32"/>
+      <c r="AC206" s="31"/>
       <c r="AD206" s="16"/>
     </row>
     <row r="207" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7398,7 +7395,7 @@
       <c r="Z207" s="5"/>
       <c r="AA207" s="6"/>
       <c r="AB207" s="7"/>
-      <c r="AC207" s="32"/>
+      <c r="AC207" s="31"/>
       <c r="AD207" s="16"/>
     </row>
     <row r="208" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7430,7 +7427,7 @@
       <c r="Z208" s="5"/>
       <c r="AA208" s="6"/>
       <c r="AB208" s="7"/>
-      <c r="AC208" s="32"/>
+      <c r="AC208" s="31"/>
       <c r="AD208" s="16"/>
     </row>
     <row r="209" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7462,7 +7459,7 @@
       <c r="Z209" s="5"/>
       <c r="AA209" s="6"/>
       <c r="AB209" s="7"/>
-      <c r="AC209" s="32"/>
+      <c r="AC209" s="31"/>
       <c r="AD209" s="16"/>
     </row>
     <row r="210" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7494,7 +7491,7 @@
       <c r="Z210" s="5"/>
       <c r="AA210" s="6"/>
       <c r="AB210" s="7"/>
-      <c r="AC210" s="32"/>
+      <c r="AC210" s="31"/>
       <c r="AD210" s="16"/>
     </row>
     <row r="211" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7526,7 +7523,7 @@
       <c r="Z211" s="5"/>
       <c r="AA211" s="6"/>
       <c r="AB211" s="7"/>
-      <c r="AC211" s="32"/>
+      <c r="AC211" s="31"/>
       <c r="AD211" s="16"/>
     </row>
     <row r="212" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7558,7 +7555,7 @@
       <c r="Z212" s="5"/>
       <c r="AA212" s="6"/>
       <c r="AB212" s="7"/>
-      <c r="AC212" s="32"/>
+      <c r="AC212" s="31"/>
       <c r="AD212" s="16"/>
     </row>
     <row r="213" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7590,7 +7587,7 @@
       <c r="Z213" s="5"/>
       <c r="AA213" s="6"/>
       <c r="AB213" s="7"/>
-      <c r="AC213" s="32"/>
+      <c r="AC213" s="31"/>
       <c r="AD213" s="16"/>
     </row>
     <row r="214" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7622,7 +7619,7 @@
       <c r="Z214" s="5"/>
       <c r="AA214" s="6"/>
       <c r="AB214" s="7"/>
-      <c r="AC214" s="32"/>
+      <c r="AC214" s="31"/>
       <c r="AD214" s="16"/>
     </row>
     <row r="215" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7654,7 +7651,7 @@
       <c r="Z215" s="5"/>
       <c r="AA215" s="6"/>
       <c r="AB215" s="7"/>
-      <c r="AC215" s="32"/>
+      <c r="AC215" s="31"/>
       <c r="AD215" s="16"/>
     </row>
     <row r="216" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,7 +7683,7 @@
       <c r="Z216" s="5"/>
       <c r="AA216" s="6"/>
       <c r="AB216" s="7"/>
-      <c r="AC216" s="32"/>
+      <c r="AC216" s="31"/>
       <c r="AD216" s="16"/>
     </row>
     <row r="217" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7718,7 +7715,7 @@
       <c r="Z217" s="5"/>
       <c r="AA217" s="6"/>
       <c r="AB217" s="7"/>
-      <c r="AC217" s="32"/>
+      <c r="AC217" s="31"/>
       <c r="AD217" s="16"/>
     </row>
     <row r="218" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7750,7 +7747,7 @@
       <c r="Z218" s="5"/>
       <c r="AA218" s="6"/>
       <c r="AB218" s="7"/>
-      <c r="AC218" s="32"/>
+      <c r="AC218" s="31"/>
       <c r="AD218" s="16"/>
     </row>
     <row r="219" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7782,7 +7779,7 @@
       <c r="Z219" s="5"/>
       <c r="AA219" s="6"/>
       <c r="AB219" s="7"/>
-      <c r="AC219" s="32"/>
+      <c r="AC219" s="31"/>
       <c r="AD219" s="16"/>
     </row>
     <row r="220" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7814,7 +7811,7 @@
       <c r="Z220" s="5"/>
       <c r="AA220" s="6"/>
       <c r="AB220" s="7"/>
-      <c r="AC220" s="32"/>
+      <c r="AC220" s="31"/>
       <c r="AD220" s="16"/>
     </row>
     <row r="221" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7846,7 +7843,7 @@
       <c r="Z221" s="5"/>
       <c r="AA221" s="6"/>
       <c r="AB221" s="7"/>
-      <c r="AC221" s="32"/>
+      <c r="AC221" s="31"/>
       <c r="AD221" s="16"/>
     </row>
     <row r="222" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7878,7 +7875,7 @@
       <c r="Z222" s="5"/>
       <c r="AA222" s="6"/>
       <c r="AB222" s="7"/>
-      <c r="AC222" s="32"/>
+      <c r="AC222" s="31"/>
       <c r="AD222" s="16"/>
     </row>
     <row r="223" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7910,7 +7907,7 @@
       <c r="Z223" s="5"/>
       <c r="AA223" s="6"/>
       <c r="AB223" s="7"/>
-      <c r="AC223" s="32"/>
+      <c r="AC223" s="31"/>
       <c r="AD223" s="16"/>
     </row>
     <row r="224" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7942,7 +7939,7 @@
       <c r="Z224" s="5"/>
       <c r="AA224" s="6"/>
       <c r="AB224" s="7"/>
-      <c r="AC224" s="32"/>
+      <c r="AC224" s="31"/>
       <c r="AD224" s="16"/>
     </row>
     <row r="225" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7974,7 +7971,7 @@
       <c r="Z225" s="5"/>
       <c r="AA225" s="6"/>
       <c r="AB225" s="7"/>
-      <c r="AC225" s="32"/>
+      <c r="AC225" s="31"/>
       <c r="AD225" s="16"/>
     </row>
     <row r="226" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8006,7 +8003,7 @@
       <c r="Z226" s="5"/>
       <c r="AA226" s="6"/>
       <c r="AB226" s="7"/>
-      <c r="AC226" s="32"/>
+      <c r="AC226" s="31"/>
       <c r="AD226" s="16"/>
     </row>
     <row r="227" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8038,7 +8035,7 @@
       <c r="Z227" s="5"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="7"/>
-      <c r="AC227" s="32"/>
+      <c r="AC227" s="31"/>
       <c r="AD227" s="16"/>
     </row>
     <row r="228" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8070,7 +8067,7 @@
       <c r="Z228" s="5"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="7"/>
-      <c r="AC228" s="32"/>
+      <c r="AC228" s="31"/>
       <c r="AD228" s="16"/>
     </row>
     <row r="229" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8102,7 +8099,7 @@
       <c r="Z229" s="5"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="7"/>
-      <c r="AC229" s="32"/>
+      <c r="AC229" s="31"/>
       <c r="AD229" s="16"/>
     </row>
     <row r="230" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8134,7 +8131,7 @@
       <c r="Z230" s="5"/>
       <c r="AA230" s="6"/>
       <c r="AB230" s="7"/>
-      <c r="AC230" s="32"/>
+      <c r="AC230" s="31"/>
       <c r="AD230" s="16"/>
     </row>
     <row r="231" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8166,7 +8163,7 @@
       <c r="Z231" s="5"/>
       <c r="AA231" s="6"/>
       <c r="AB231" s="7"/>
-      <c r="AC231" s="32"/>
+      <c r="AC231" s="31"/>
       <c r="AD231" s="16"/>
     </row>
     <row r="232" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8198,7 +8195,7 @@
       <c r="Z232" s="5"/>
       <c r="AA232" s="6"/>
       <c r="AB232" s="7"/>
-      <c r="AC232" s="32"/>
+      <c r="AC232" s="31"/>
       <c r="AD232" s="16"/>
     </row>
     <row r="233" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8230,7 +8227,7 @@
       <c r="Z233" s="5"/>
       <c r="AA233" s="6"/>
       <c r="AB233" s="7"/>
-      <c r="AC233" s="32"/>
+      <c r="AC233" s="31"/>
       <c r="AD233" s="16"/>
     </row>
     <row r="234" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8262,7 +8259,7 @@
       <c r="Z234" s="5"/>
       <c r="AA234" s="6"/>
       <c r="AB234" s="7"/>
-      <c r="AC234" s="32"/>
+      <c r="AC234" s="31"/>
       <c r="AD234" s="16"/>
     </row>
     <row r="235" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8294,7 +8291,7 @@
       <c r="Z235" s="5"/>
       <c r="AA235" s="6"/>
       <c r="AB235" s="7"/>
-      <c r="AC235" s="32"/>
+      <c r="AC235" s="31"/>
       <c r="AD235" s="16"/>
     </row>
     <row r="236" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8323,7 @@
       <c r="Z236" s="5"/>
       <c r="AA236" s="6"/>
       <c r="AB236" s="7"/>
-      <c r="AC236" s="32"/>
+      <c r="AC236" s="31"/>
       <c r="AD236" s="16"/>
     </row>
     <row r="237" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8358,7 +8355,7 @@
       <c r="Z237" s="5"/>
       <c r="AA237" s="6"/>
       <c r="AB237" s="7"/>
-      <c r="AC237" s="32"/>
+      <c r="AC237" s="31"/>
       <c r="AD237" s="16"/>
     </row>
     <row r="238" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8390,7 +8387,7 @@
       <c r="Z238" s="5"/>
       <c r="AA238" s="6"/>
       <c r="AB238" s="7"/>
-      <c r="AC238" s="32"/>
+      <c r="AC238" s="31"/>
       <c r="AD238" s="16"/>
     </row>
     <row r="239" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8422,7 +8419,7 @@
       <c r="Z239" s="5"/>
       <c r="AA239" s="6"/>
       <c r="AB239" s="7"/>
-      <c r="AC239" s="32"/>
+      <c r="AC239" s="31"/>
       <c r="AD239" s="16"/>
     </row>
     <row r="240" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8454,7 +8451,7 @@
       <c r="Z240" s="5"/>
       <c r="AA240" s="6"/>
       <c r="AB240" s="7"/>
-      <c r="AC240" s="32"/>
+      <c r="AC240" s="31"/>
       <c r="AD240" s="16"/>
     </row>
     <row r="241" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8486,7 +8483,7 @@
       <c r="Z241" s="5"/>
       <c r="AA241" s="6"/>
       <c r="AB241" s="7"/>
-      <c r="AC241" s="32"/>
+      <c r="AC241" s="31"/>
       <c r="AD241" s="16"/>
     </row>
     <row r="242" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8518,7 +8515,7 @@
       <c r="Z242" s="5"/>
       <c r="AA242" s="6"/>
       <c r="AB242" s="7"/>
-      <c r="AC242" s="32"/>
+      <c r="AC242" s="31"/>
       <c r="AD242" s="16"/>
     </row>
     <row r="243" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8550,7 +8547,7 @@
       <c r="Z243" s="5"/>
       <c r="AA243" s="6"/>
       <c r="AB243" s="7"/>
-      <c r="AC243" s="32"/>
+      <c r="AC243" s="31"/>
       <c r="AD243" s="16"/>
     </row>
     <row r="244" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8582,7 +8579,7 @@
       <c r="Z244" s="5"/>
       <c r="AA244" s="6"/>
       <c r="AB244" s="7"/>
-      <c r="AC244" s="32"/>
+      <c r="AC244" s="31"/>
       <c r="AD244" s="16"/>
     </row>
     <row r="245" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8614,7 +8611,7 @@
       <c r="Z245" s="5"/>
       <c r="AA245" s="6"/>
       <c r="AB245" s="7"/>
-      <c r="AC245" s="32"/>
+      <c r="AC245" s="31"/>
       <c r="AD245" s="16"/>
     </row>
     <row r="246" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8646,7 +8643,7 @@
       <c r="Z246" s="5"/>
       <c r="AA246" s="6"/>
       <c r="AB246" s="7"/>
-      <c r="AC246" s="32"/>
+      <c r="AC246" s="31"/>
       <c r="AD246" s="16"/>
     </row>
     <row r="247" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8678,7 +8675,7 @@
       <c r="Z247" s="5"/>
       <c r="AA247" s="6"/>
       <c r="AB247" s="7"/>
-      <c r="AC247" s="32"/>
+      <c r="AC247" s="31"/>
       <c r="AD247" s="16"/>
     </row>
     <row r="248" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8710,7 +8707,7 @@
       <c r="Z248" s="5"/>
       <c r="AA248" s="6"/>
       <c r="AB248" s="7"/>
-      <c r="AC248" s="32"/>
+      <c r="AC248" s="31"/>
       <c r="AD248" s="16"/>
     </row>
     <row r="249" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,7 +8739,7 @@
       <c r="Z249" s="5"/>
       <c r="AA249" s="6"/>
       <c r="AB249" s="7"/>
-      <c r="AC249" s="32"/>
+      <c r="AC249" s="31"/>
       <c r="AD249" s="16"/>
     </row>
     <row r="250" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8774,7 +8771,7 @@
       <c r="Z250" s="5"/>
       <c r="AA250" s="6"/>
       <c r="AB250" s="7"/>
-      <c r="AC250" s="32"/>
+      <c r="AC250" s="31"/>
       <c r="AD250" s="16"/>
     </row>
     <row r="251" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8806,7 +8803,7 @@
       <c r="Z251" s="5"/>
       <c r="AA251" s="6"/>
       <c r="AB251" s="7"/>
-      <c r="AC251" s="32"/>
+      <c r="AC251" s="31"/>
       <c r="AD251" s="16"/>
     </row>
     <row r="252" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8838,7 +8835,7 @@
       <c r="Z252" s="5"/>
       <c r="AA252" s="6"/>
       <c r="AB252" s="7"/>
-      <c r="AC252" s="32"/>
+      <c r="AC252" s="31"/>
       <c r="AD252" s="16"/>
     </row>
     <row r="253" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8870,7 +8867,7 @@
       <c r="Z253" s="5"/>
       <c r="AA253" s="6"/>
       <c r="AB253" s="7"/>
-      <c r="AC253" s="32"/>
+      <c r="AC253" s="31"/>
       <c r="AD253" s="16"/>
     </row>
     <row r="254" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8902,7 +8899,7 @@
       <c r="Z254" s="5"/>
       <c r="AA254" s="6"/>
       <c r="AB254" s="7"/>
-      <c r="AC254" s="32"/>
+      <c r="AC254" s="31"/>
       <c r="AD254" s="16"/>
     </row>
     <row r="255" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8934,7 +8931,7 @@
       <c r="Z255" s="5"/>
       <c r="AA255" s="6"/>
       <c r="AB255" s="7"/>
-      <c r="AC255" s="32"/>
+      <c r="AC255" s="31"/>
       <c r="AD255" s="16"/>
     </row>
     <row r="256" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8966,7 +8963,7 @@
       <c r="Z256" s="5"/>
       <c r="AA256" s="6"/>
       <c r="AB256" s="7"/>
-      <c r="AC256" s="32"/>
+      <c r="AC256" s="31"/>
       <c r="AD256" s="16"/>
     </row>
     <row r="257" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8998,7 +8995,7 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="6"/>
       <c r="AB257" s="7"/>
-      <c r="AC257" s="32"/>
+      <c r="AC257" s="31"/>
       <c r="AD257" s="16"/>
     </row>
     <row r="258" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9030,7 +9027,7 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="6"/>
       <c r="AB258" s="7"/>
-      <c r="AC258" s="32"/>
+      <c r="AC258" s="31"/>
       <c r="AD258" s="16"/>
     </row>
     <row r="259" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9062,7 +9059,7 @@
       <c r="Z259" s="5"/>
       <c r="AA259" s="6"/>
       <c r="AB259" s="7"/>
-      <c r="AC259" s="32"/>
+      <c r="AC259" s="31"/>
       <c r="AD259" s="16"/>
     </row>
     <row r="260" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9094,7 +9091,7 @@
       <c r="Z260" s="5"/>
       <c r="AA260" s="6"/>
       <c r="AB260" s="7"/>
-      <c r="AC260" s="32"/>
+      <c r="AC260" s="31"/>
       <c r="AD260" s="16"/>
     </row>
     <row r="261" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9126,7 +9123,7 @@
       <c r="Z261" s="5"/>
       <c r="AA261" s="6"/>
       <c r="AB261" s="7"/>
-      <c r="AC261" s="32"/>
+      <c r="AC261" s="31"/>
       <c r="AD261" s="16"/>
     </row>
     <row r="262" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9158,7 +9155,7 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="6"/>
       <c r="AB262" s="7"/>
-      <c r="AC262" s="32"/>
+      <c r="AC262" s="31"/>
       <c r="AD262" s="16"/>
     </row>
     <row r="263" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9190,7 +9187,7 @@
       <c r="Z263" s="5"/>
       <c r="AA263" s="6"/>
       <c r="AB263" s="7"/>
-      <c r="AC263" s="32"/>
+      <c r="AC263" s="31"/>
       <c r="AD263" s="16"/>
     </row>
     <row r="264" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9222,7 +9219,7 @@
       <c r="Z264" s="5"/>
       <c r="AA264" s="6"/>
       <c r="AB264" s="7"/>
-      <c r="AC264" s="32"/>
+      <c r="AC264" s="31"/>
       <c r="AD264" s="16"/>
     </row>
     <row r="265" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9254,7 +9251,7 @@
       <c r="Z265" s="5"/>
       <c r="AA265" s="6"/>
       <c r="AB265" s="7"/>
-      <c r="AC265" s="32"/>
+      <c r="AC265" s="31"/>
       <c r="AD265" s="16"/>
     </row>
     <row r="266" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9286,7 +9283,7 @@
       <c r="Z266" s="5"/>
       <c r="AA266" s="6"/>
       <c r="AB266" s="7"/>
-      <c r="AC266" s="32"/>
+      <c r="AC266" s="31"/>
       <c r="AD266" s="16"/>
     </row>
     <row r="267" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9318,7 +9315,7 @@
       <c r="Z267" s="5"/>
       <c r="AA267" s="6"/>
       <c r="AB267" s="7"/>
-      <c r="AC267" s="32"/>
+      <c r="AC267" s="31"/>
       <c r="AD267" s="16"/>
     </row>
     <row r="268" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9350,7 +9347,7 @@
       <c r="Z268" s="5"/>
       <c r="AA268" s="6"/>
       <c r="AB268" s="7"/>
-      <c r="AC268" s="32"/>
+      <c r="AC268" s="31"/>
       <c r="AD268" s="16"/>
     </row>
     <row r="269" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9382,7 +9379,7 @@
       <c r="Z269" s="5"/>
       <c r="AA269" s="6"/>
       <c r="AB269" s="7"/>
-      <c r="AC269" s="32"/>
+      <c r="AC269" s="31"/>
       <c r="AD269" s="16"/>
     </row>
     <row r="270" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9414,7 +9411,7 @@
       <c r="Z270" s="5"/>
       <c r="AA270" s="6"/>
       <c r="AB270" s="7"/>
-      <c r="AC270" s="32"/>
+      <c r="AC270" s="31"/>
       <c r="AD270" s="16"/>
     </row>
     <row r="271" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9446,7 +9443,7 @@
       <c r="Z271" s="5"/>
       <c r="AA271" s="6"/>
       <c r="AB271" s="7"/>
-      <c r="AC271" s="32"/>
+      <c r="AC271" s="31"/>
       <c r="AD271" s="16"/>
     </row>
     <row r="272" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9478,7 +9475,7 @@
       <c r="Z272" s="5"/>
       <c r="AA272" s="6"/>
       <c r="AB272" s="7"/>
-      <c r="AC272" s="32"/>
+      <c r="AC272" s="31"/>
       <c r="AD272" s="16"/>
     </row>
     <row r="273" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9510,7 +9507,7 @@
       <c r="Z273" s="5"/>
       <c r="AA273" s="6"/>
       <c r="AB273" s="7"/>
-      <c r="AC273" s="32"/>
+      <c r="AC273" s="31"/>
       <c r="AD273" s="16"/>
     </row>
     <row r="274" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9542,7 +9539,7 @@
       <c r="Z274" s="5"/>
       <c r="AA274" s="6"/>
       <c r="AB274" s="7"/>
-      <c r="AC274" s="32"/>
+      <c r="AC274" s="31"/>
       <c r="AD274" s="16"/>
     </row>
     <row r="275" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9574,7 +9571,7 @@
       <c r="Z275" s="5"/>
       <c r="AA275" s="6"/>
       <c r="AB275" s="7"/>
-      <c r="AC275" s="32"/>
+      <c r="AC275" s="31"/>
       <c r="AD275" s="16"/>
     </row>
     <row r="276" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9606,7 +9603,7 @@
       <c r="Z276" s="5"/>
       <c r="AA276" s="6"/>
       <c r="AB276" s="7"/>
-      <c r="AC276" s="32"/>
+      <c r="AC276" s="31"/>
       <c r="AD276" s="16"/>
     </row>
     <row r="277" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9638,7 +9635,7 @@
       <c r="Z277" s="5"/>
       <c r="AA277" s="6"/>
       <c r="AB277" s="7"/>
-      <c r="AC277" s="32"/>
+      <c r="AC277" s="31"/>
       <c r="AD277" s="16"/>
     </row>
     <row r="278" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9670,7 +9667,7 @@
       <c r="Z278" s="5"/>
       <c r="AA278" s="6"/>
       <c r="AB278" s="7"/>
-      <c r="AC278" s="32"/>
+      <c r="AC278" s="31"/>
       <c r="AD278" s="16"/>
     </row>
     <row r="279" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9702,7 +9699,7 @@
       <c r="Z279" s="5"/>
       <c r="AA279" s="6"/>
       <c r="AB279" s="7"/>
-      <c r="AC279" s="32"/>
+      <c r="AC279" s="31"/>
       <c r="AD279" s="16"/>
     </row>
     <row r="280" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9734,7 +9731,7 @@
       <c r="Z280" s="5"/>
       <c r="AA280" s="6"/>
       <c r="AB280" s="7"/>
-      <c r="AC280" s="32"/>
+      <c r="AC280" s="31"/>
       <c r="AD280" s="16"/>
     </row>
     <row r="281" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9766,7 +9763,7 @@
       <c r="Z281" s="5"/>
       <c r="AA281" s="6"/>
       <c r="AB281" s="7"/>
-      <c r="AC281" s="32"/>
+      <c r="AC281" s="31"/>
       <c r="AD281" s="16"/>
     </row>
     <row r="282" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9798,7 +9795,7 @@
       <c r="Z282" s="5"/>
       <c r="AA282" s="6"/>
       <c r="AB282" s="7"/>
-      <c r="AC282" s="32"/>
+      <c r="AC282" s="31"/>
       <c r="AD282" s="16"/>
     </row>
     <row r="283" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9830,7 +9827,7 @@
       <c r="Z283" s="5"/>
       <c r="AA283" s="6"/>
       <c r="AB283" s="7"/>
-      <c r="AC283" s="32"/>
+      <c r="AC283" s="31"/>
       <c r="AD283" s="16"/>
     </row>
     <row r="284" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9862,7 +9859,7 @@
       <c r="Z284" s="5"/>
       <c r="AA284" s="6"/>
       <c r="AB284" s="7"/>
-      <c r="AC284" s="32"/>
+      <c r="AC284" s="31"/>
       <c r="AD284" s="16"/>
     </row>
     <row r="285" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9894,7 +9891,7 @@
       <c r="Z285" s="5"/>
       <c r="AA285" s="6"/>
       <c r="AB285" s="7"/>
-      <c r="AC285" s="32"/>
+      <c r="AC285" s="31"/>
       <c r="AD285" s="16"/>
     </row>
     <row r="286" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9926,7 +9923,7 @@
       <c r="Z286" s="5"/>
       <c r="AA286" s="6"/>
       <c r="AB286" s="7"/>
-      <c r="AC286" s="32"/>
+      <c r="AC286" s="31"/>
       <c r="AD286" s="16"/>
     </row>
     <row r="287" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9958,7 +9955,7 @@
       <c r="Z287" s="5"/>
       <c r="AA287" s="6"/>
       <c r="AB287" s="7"/>
-      <c r="AC287" s="32"/>
+      <c r="AC287" s="31"/>
       <c r="AD287" s="16"/>
     </row>
     <row r="288" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9990,7 +9987,7 @@
       <c r="Z288" s="5"/>
       <c r="AA288" s="6"/>
       <c r="AB288" s="7"/>
-      <c r="AC288" s="32"/>
+      <c r="AC288" s="31"/>
       <c r="AD288" s="16"/>
     </row>
     <row r="289" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10022,7 +10019,7 @@
       <c r="Z289" s="5"/>
       <c r="AA289" s="6"/>
       <c r="AB289" s="7"/>
-      <c r="AC289" s="32"/>
+      <c r="AC289" s="31"/>
       <c r="AD289" s="16"/>
     </row>
     <row r="290" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,7 +10051,7 @@
       <c r="Z290" s="5"/>
       <c r="AA290" s="6"/>
       <c r="AB290" s="7"/>
-      <c r="AC290" s="32"/>
+      <c r="AC290" s="31"/>
       <c r="AD290" s="16"/>
     </row>
     <row r="291" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10086,7 +10083,7 @@
       <c r="Z291" s="5"/>
       <c r="AA291" s="6"/>
       <c r="AB291" s="7"/>
-      <c r="AC291" s="32"/>
+      <c r="AC291" s="31"/>
       <c r="AD291" s="16"/>
     </row>
     <row r="292" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10118,7 +10115,7 @@
       <c r="Z292" s="5"/>
       <c r="AA292" s="6"/>
       <c r="AB292" s="7"/>
-      <c r="AC292" s="32"/>
+      <c r="AC292" s="31"/>
       <c r="AD292" s="16"/>
     </row>
     <row r="293" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10150,7 +10147,7 @@
       <c r="Z293" s="5"/>
       <c r="AA293" s="6"/>
       <c r="AB293" s="7"/>
-      <c r="AC293" s="32"/>
+      <c r="AC293" s="31"/>
       <c r="AD293" s="16"/>
     </row>
     <row r="294" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10182,7 +10179,7 @@
       <c r="Z294" s="5"/>
       <c r="AA294" s="6"/>
       <c r="AB294" s="7"/>
-      <c r="AC294" s="32"/>
+      <c r="AC294" s="31"/>
       <c r="AD294" s="16"/>
     </row>
     <row r="295" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10214,7 +10211,7 @@
       <c r="Z295" s="5"/>
       <c r="AA295" s="6"/>
       <c r="AB295" s="7"/>
-      <c r="AC295" s="32"/>
+      <c r="AC295" s="31"/>
       <c r="AD295" s="16"/>
     </row>
     <row r="296" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10246,7 +10243,7 @@
       <c r="Z296" s="5"/>
       <c r="AA296" s="6"/>
       <c r="AB296" s="7"/>
-      <c r="AC296" s="32"/>
+      <c r="AC296" s="31"/>
       <c r="AD296" s="16"/>
     </row>
     <row r="297" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10278,7 +10275,7 @@
       <c r="Z297" s="5"/>
       <c r="AA297" s="6"/>
       <c r="AB297" s="7"/>
-      <c r="AC297" s="32"/>
+      <c r="AC297" s="31"/>
       <c r="AD297" s="16"/>
     </row>
     <row r="298" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10310,7 +10307,7 @@
       <c r="Z298" s="5"/>
       <c r="AA298" s="6"/>
       <c r="AB298" s="7"/>
-      <c r="AC298" s="32"/>
+      <c r="AC298" s="31"/>
       <c r="AD298" s="16"/>
     </row>
     <row r="299" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10342,7 +10339,7 @@
       <c r="Z299" s="5"/>
       <c r="AA299" s="6"/>
       <c r="AB299" s="7"/>
-      <c r="AC299" s="32"/>
+      <c r="AC299" s="31"/>
       <c r="AD299" s="16"/>
     </row>
     <row r="300" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10374,7 +10371,7 @@
       <c r="Z300" s="5"/>
       <c r="AA300" s="6"/>
       <c r="AB300" s="7"/>
-      <c r="AC300" s="32"/>
+      <c r="AC300" s="31"/>
       <c r="AD300" s="16"/>
     </row>
     <row r="301" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10406,7 +10403,7 @@
       <c r="Z301" s="5"/>
       <c r="AA301" s="6"/>
       <c r="AB301" s="7"/>
-      <c r="AC301" s="32"/>
+      <c r="AC301" s="31"/>
       <c r="AD301" s="16"/>
     </row>
     <row r="302" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10438,7 +10435,7 @@
       <c r="Z302" s="5"/>
       <c r="AA302" s="6"/>
       <c r="AB302" s="7"/>
-      <c r="AC302" s="32"/>
+      <c r="AC302" s="31"/>
       <c r="AD302" s="16"/>
     </row>
     <row r="303" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10470,7 +10467,7 @@
       <c r="Z303" s="5"/>
       <c r="AA303" s="6"/>
       <c r="AB303" s="7"/>
-      <c r="AC303" s="32"/>
+      <c r="AC303" s="31"/>
       <c r="AD303" s="16"/>
     </row>
     <row r="304" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10502,7 +10499,7 @@
       <c r="Z304" s="5"/>
       <c r="AA304" s="6"/>
       <c r="AB304" s="7"/>
-      <c r="AC304" s="32"/>
+      <c r="AC304" s="31"/>
       <c r="AD304" s="16"/>
     </row>
     <row r="305" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10534,7 +10531,7 @@
       <c r="Z305" s="5"/>
       <c r="AA305" s="6"/>
       <c r="AB305" s="7"/>
-      <c r="AC305" s="32"/>
+      <c r="AC305" s="31"/>
       <c r="AD305" s="16"/>
     </row>
     <row r="306" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10566,7 +10563,7 @@
       <c r="Z306" s="5"/>
       <c r="AA306" s="6"/>
       <c r="AB306" s="7"/>
-      <c r="AC306" s="32"/>
+      <c r="AC306" s="31"/>
       <c r="AD306" s="16"/>
     </row>
     <row r="307" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10598,7 +10595,7 @@
       <c r="Z307" s="5"/>
       <c r="AA307" s="6"/>
       <c r="AB307" s="7"/>
-      <c r="AC307" s="32"/>
+      <c r="AC307" s="31"/>
       <c r="AD307" s="16"/>
     </row>
     <row r="308" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10630,7 +10627,7 @@
       <c r="Z308" s="5"/>
       <c r="AA308" s="6"/>
       <c r="AB308" s="7"/>
-      <c r="AC308" s="32"/>
+      <c r="AC308" s="31"/>
       <c r="AD308" s="16"/>
     </row>
     <row r="309" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10662,7 +10659,7 @@
       <c r="Z309" s="5"/>
       <c r="AA309" s="6"/>
       <c r="AB309" s="7"/>
-      <c r="AC309" s="32"/>
+      <c r="AC309" s="31"/>
       <c r="AD309" s="16"/>
     </row>
     <row r="310" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10694,7 +10691,7 @@
       <c r="Z310" s="5"/>
       <c r="AA310" s="6"/>
       <c r="AB310" s="7"/>
-      <c r="AC310" s="32"/>
+      <c r="AC310" s="31"/>
       <c r="AD310" s="16"/>
     </row>
     <row r="311" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,7 +10723,7 @@
       <c r="Z311" s="5"/>
       <c r="AA311" s="6"/>
       <c r="AB311" s="7"/>
-      <c r="AC311" s="32"/>
+      <c r="AC311" s="31"/>
       <c r="AD311" s="16"/>
     </row>
     <row r="312" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10758,7 +10755,7 @@
       <c r="Z312" s="5"/>
       <c r="AA312" s="6"/>
       <c r="AB312" s="7"/>
-      <c r="AC312" s="32"/>
+      <c r="AC312" s="31"/>
       <c r="AD312" s="16"/>
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.25">
